--- a/LCI.xlsx
+++ b/LCI.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1284" windowWidth="27636" windowHeight="16944" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cuentas" sheetId="2" r:id="rId1"/>
-    <sheet name="Mensajes" sheetId="3" r:id="rId2"/>
-    <sheet name="Cuotas - Agosto" sheetId="1" r:id="rId3"/>
+    <sheet name="Formaciones" sheetId="5" r:id="rId2"/>
+    <sheet name="Monedas" sheetId="4" r:id="rId3"/>
+    <sheet name="Mensajes" sheetId="3" r:id="rId4"/>
+    <sheet name="Cuotas - Agosto" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Titulares">cuentas_bancarias[Titular]</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>Nombre</t>
   </si>
@@ -57,9 +59,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Cuota (Valor)</t>
-  </si>
-  <si>
     <t>Titular</t>
   </si>
   <si>
@@ -87,18 +86,9 @@
     <t>Mensaje</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>Titulo</t>
   </si>
   <si>
-    <t>Bienvenida</t>
-  </si>
-  <si>
-    <t>Hola {{nombre}}! Bienvenido a LCI! Cómo estás?</t>
-  </si>
-  <si>
     <t>PABLO LEMA</t>
   </si>
   <si>
@@ -258,20 +248,199 @@
     <t>ALIAS</t>
   </si>
   <si>
-    <t>bienvenido 2</t>
-  </si>
-  <si>
-    <t>Hola {{nombre}}! Bienvenido a LCI! Cómo estás? {{cbu}}</t>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>👋  *¡Buenos días querid@ alumno del _POSTÍTULO COACHING DE PAREJAS 2024!_*
+👉🏻 A continuación te enviamos la cuenta asignada para el pago del mes de _*{{mes}} {{ano}}*_
+El valor de su cuota es de _${{cuota}}_
+⚠ *IMPORTANTE:* _asignamos una nueva cuenta para el pago de su cuota en septiembre, tener en cuenta la misma:_
+TITULAR: _{{titular}}_
+BANCO: _{{banco}}_
+CUIT: _{{cuit}}_
+DNI: _{{dni}}_
+TIPO: _{{tipo}}_
+CUENTA N°: _{{cuenta_n}}_
+CBU: _{{cbu}}_
+ALIAS: _{{alias}}_
+🚨 Recordá enviarnos tu comprobante por este medio para poder registrar tu pago.
+⚠ IMPORTANTE:
+Los pagos correspondientes a las clases virtuales (transferencia o depósito) realizados después del día 10 de cada mes, tendrán un interés del 10% en el valor de la cuota. Evita inconvenientes pagando en término.
+Saludos Cordiales - La Administración</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Dólares</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Euros</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPM </t>
+  </si>
+  <si>
+    <t>CARRERA COACHING ONTOLÓGICO PROFESIONAL MENSUAL 2024</t>
+  </si>
+  <si>
+    <t>CARRERA DE COACHING ONTOLÓGICO PROFESIONAL SEMANAL 2024</t>
+  </si>
+  <si>
+    <t>COPS</t>
+  </si>
+  <si>
+    <t>CARRERA COACHING ONTOLÓGICO PROFESIONAL MATUTINO 2024</t>
+  </si>
+  <si>
+    <t>POSTÍTULO COACHING DE PAREJAS 2024</t>
+  </si>
+  <si>
+    <t>POSÍTULO COACHING ORGANIZACIONAL Y EJECUTIVO 2024</t>
+  </si>
+  <si>
+    <t>POSTÍTULO ENEAGRAMA PARA COACHES 2024</t>
+  </si>
+  <si>
+    <t>PEPC</t>
+  </si>
+  <si>
+    <t>PCOE</t>
+  </si>
+  <si>
+    <t>PCDP</t>
+  </si>
+  <si>
+    <t>COPMT</t>
+  </si>
+  <si>
+    <t>POSTÍTULO NEUROCIENCIA PARA COACHES FLEX 2024</t>
+  </si>
+  <si>
+    <t>POSTÍTULO COACHING DE PAREJAS FLEX 2024</t>
+  </si>
+  <si>
+    <t>PCDPF</t>
+  </si>
+  <si>
+    <t>POSÍTULO COACHING ORGANIZACIONAL Y EJECUTIVO FLEX 2024</t>
+  </si>
+  <si>
+    <t>PCOEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPCF </t>
+  </si>
+  <si>
+    <t>POSTÍTULO ENEAGRAMA PARA COACHES FLEX 2024</t>
+  </si>
+  <si>
+    <t>POSTÍTULO HEALTH COACH FLEX 2024</t>
+  </si>
+  <si>
+    <t>CURSO ESTILO DE VIDA SALUDABLE 2024</t>
+  </si>
+  <si>
+    <t>CURSO ESTILO DE VIDA SALUDABLE ASINCRÓNICO 2024</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA ENEAGRAMA E INTELIGENCIA EMOCIONAL 2024</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA ENEAGRAMA E INTELIGENCIA EMOCIONAL FLEX 2024</t>
+  </si>
+  <si>
+    <t>DEIEF</t>
+  </si>
+  <si>
+    <t>DEIE</t>
+  </si>
+  <si>
+    <t>CEVSA</t>
+  </si>
+  <si>
+    <t>CEVS</t>
+  </si>
+  <si>
+    <t>PHCF</t>
+  </si>
+  <si>
+    <t>PNPCF</t>
+  </si>
+  <si>
+    <t>PNPC</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>mensaje 01</t>
+  </si>
+  <si>
+    <t>mensaje 02</t>
+  </si>
+  <si>
+    <t>⚠ COMUNICADO IMPORTANTE ⚠
+Te recordamos que aun no has enviado el comprobante de pago del mes de SEPTIEMBRE 2024  NOMBRE FORMACIÓN, te pedimos que lo reenvíes por este medio.
+(En el caso de haber enviado el mismo, desestima este mensaje.)
+⚠ IMPORTANTE: ⚠
+Recuerda que los pagos se realizan del 1 al 10 de cada mes. Los pagos correspondientes a las clases virtuales (transferencia o depósito) realizados después del día 10 de cada mes, tendrán un interés del 10% en el valor de la cuota. Evita inconvenientes pagando en término.
+Saludos Cordiales - La Administración</t>
+  </si>
+  <si>
+    <t>mensaje 03</t>
+  </si>
+  <si>
+    <t>BL_CUENTA</t>
+  </si>
+  <si>
+    <t>BL_CUENTA_NO</t>
+  </si>
+  <si>
+    <t>BL_CUENTA_SI</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>👋  *¡Buenos días querid@ alumno del _POSTÍTULO COACHING DE PAREJAS 2024!_*
+👉🏻 A continuación te enviamos la cuenta asignada para el pago del mes de _*{{mes}} {{ano}}*_
+El valor de su cuota es de _${{cuota}}_
+🚨 Recordá enviarnos tu comprobante por este medio para poder registrar tu pago.
+⚠ IMPORTANTE:
+Los pagos correspondientes a las clases virtuales (transferencia o depósito) realizados después del día 10 de cada mes, tendrán un interés del 10% en el valor de la cuota. Evita inconvenientes pagando en término.
+Saludos Cordiales - La Administración</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;\ #,##0;\-&quot;$&quot;\ #,##0"/>
-  </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,16 +448,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -296,11 +484,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -309,7 +512,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,11 +519,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -344,16 +555,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="&quot;$&quot;\ #,##0;\-&quot;$&quot;\ #,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -362,7 +570,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,8 +603,8 @@
     <tableColumn id="3" name="CUIT"/>
     <tableColumn id="4" name="DNI"/>
     <tableColumn id="5" name="Tipo"/>
-    <tableColumn id="6" name="Cuenta N" dataDxfId="9"/>
-    <tableColumn id="7" name="CBU" dataDxfId="8"/>
+    <tableColumn id="6" name="Cuenta N" dataDxfId="15"/>
+    <tableColumn id="7" name="CBU" dataDxfId="14"/>
     <tableColumn id="8" name="Alias"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -395,38 +612,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_cuotas7" displayName="Tabla_cuotas7" ref="A1:O139" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:O139"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_cuotas7" displayName="Tabla_cuotas7" ref="A1:R139" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:R139"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="Nombre"/>
-    <tableColumn id="2" name="Teléfono" dataDxfId="7"/>
-    <tableColumn id="3" name="Curso" dataDxfId="12"/>
+    <tableColumn id="2" name="Teléfono" dataDxfId="12"/>
+    <tableColumn id="3" name="Curso" dataDxfId="11"/>
     <tableColumn id="4" name="Mes"/>
     <tableColumn id="14" name="Año"/>
-    <tableColumn id="5" name="Cuota (Valor)" dataDxfId="11"/>
+    <tableColumn id="5" name="Cuota" dataDxfId="10"/>
+    <tableColumn id="15" name="Moneda"/>
     <tableColumn id="6" name="Titular"/>
-    <tableColumn id="7" name="Banco" dataDxfId="6">
-      <calculatedColumnFormula>VLOOKUP(G2,Cuentas!A:B,2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="7" name="Banco" dataDxfId="9">
+      <calculatedColumnFormula>VLOOKUP(H2,Cuentas!A:B,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="CUIT" dataDxfId="5">
-      <calculatedColumnFormula>VLOOKUP(G2,Cuentas!A:C,3,FALSE)</calculatedColumnFormula>
+    <tableColumn id="8" name="CUIT" dataDxfId="8">
+      <calculatedColumnFormula>VLOOKUP(H2,Cuentas!A:C,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="DNI" dataDxfId="4">
-      <calculatedColumnFormula>VLOOKUP(G2,Cuentas!A:D,4,FALSE)</calculatedColumnFormula>
+    <tableColumn id="9" name="DNI" dataDxfId="7">
+      <calculatedColumnFormula>VLOOKUP(H2,Cuentas!A:D,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Tipo" dataDxfId="3">
-      <calculatedColumnFormula>VLOOKUP(G2,Cuentas!A:E,5,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" name="Tipo" dataDxfId="6">
+      <calculatedColumnFormula>VLOOKUP(H2,Cuentas!A:E,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Cuenta N" dataDxfId="2">
-      <calculatedColumnFormula>VLOOKUP(G2,Cuentas!A:F,6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="11" name="Cuenta N" dataDxfId="5">
+      <calculatedColumnFormula>VLOOKUP(H2,Cuentas!A:F,6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CBU" dataDxfId="1">
-      <calculatedColumnFormula>VLOOKUP(G2,Cuentas!A:G,7,FALSE)</calculatedColumnFormula>
+    <tableColumn id="13" name="CBU" dataDxfId="4">
+      <calculatedColumnFormula>VLOOKUP(H2,Cuentas!A:G,7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="ALIAS" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(G2,Cuentas!A:H,8,FALSE)</calculatedColumnFormula>
+    <tableColumn id="12" name="ALIAS" dataDxfId="3">
+      <calculatedColumnFormula>VLOOKUP(H2,Cuentas!A:H,8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="$" dataDxfId="10"/>
+    <tableColumn id="16" name="BL_CUENTA" dataDxfId="2"/>
+    <tableColumn id="17" name="BL_CUENTA_SI" dataDxfId="1"/>
+    <tableColumn id="18" name="BL_CUENTA_NO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -769,62 +989,62 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4">
         <v>20257548903</v>
       </c>
       <c r="D2">
         <v>25754890</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>27248752098</v>
@@ -833,24 +1053,24 @@
         <v>24875209</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>27402123848</v>
@@ -859,24 +1079,24 @@
         <v>40212384</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>27432309784</v>
@@ -885,24 +1105,24 @@
         <v>43230978</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>27432309776</v>
@@ -911,24 +1131,24 @@
         <v>43230977</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>20367112590</v>
@@ -937,50 +1157,50 @@
         <v>36711259</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>33715967729</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>20179845548</v>
@@ -989,24 +1209,24 @@
         <v>17984554</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>27371771862</v>
@@ -1015,24 +1235,24 @@
         <v>37177186</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>4444</v>
@@ -1041,27 +1261,27 @@
         <v>4333444</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1073,52 +1293,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="63.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
+    <row r="1" spans="1:2" ht="15.6">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
+      <c r="A3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6">
+      <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="174.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="195">
+      <c r="A2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="165">
+      <c r="A3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="345">
+      <c r="A4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1129,20 +1562,23 @@
     <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.6328125" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.54296875" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" customWidth="1"/>
+    <col min="16" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1155,48 +1591,57 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="O1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>68</v>
       </c>
       <c r="E2">
         <v>2024</v>
@@ -1205,50 +1650,57 @@
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="7" t="str">
-        <f>VLOOKUP(G2,Cuentas!A:B,2,FALSE)</f>
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>VLOOKUP(H2,Cuentas!A:B,2,FALSE)</f>
         <v>MACRO</v>
       </c>
-      <c r="I2">
-        <f>VLOOKUP(G2,Cuentas!A:C,3,FALSE)</f>
+      <c r="J2">
+        <f>VLOOKUP(H2,Cuentas!A:C,3,FALSE)</f>
         <v>27432309784</v>
       </c>
-      <c r="J2">
-        <f>VLOOKUP(G2,Cuentas!A:D,4,FALSE)</f>
+      <c r="K2">
+        <f>VLOOKUP(H2,Cuentas!A:D,4,FALSE)</f>
         <v>43230978</v>
       </c>
-      <c r="K2" t="str">
-        <f>VLOOKUP(G2,Cuentas!A:E,5,FALSE)</f>
+      <c r="L2" t="str">
+        <f>VLOOKUP(H2,Cuentas!A:E,5,FALSE)</f>
         <v>CAJA DE AHORROS</v>
       </c>
-      <c r="L2" t="str">
-        <f>VLOOKUP(G2,Cuentas!A:F,6,FALSE)</f>
+      <c r="M2" t="str">
+        <f>VLOOKUP(H2,Cuentas!A:F,6,FALSE)</f>
         <v>430909548719522</v>
       </c>
-      <c r="M2" t="str">
-        <f>VLOOKUP(G2,Cuentas!A:G,7,FALSE)</f>
+      <c r="N2" t="str">
+        <f>VLOOKUP(H2,Cuentas!A:G,7,FALSE)</f>
         <v>2850309540095487195228</v>
       </c>
-      <c r="N2" t="str">
-        <f>VLOOKUP(G2,Cuentas!A:H,8,FALSE)</f>
+      <c r="O2" t="str">
+        <f>VLOOKUP(H2,Cuentas!A:H,8,FALSE)</f>
         <v>racimo.docena.duda</v>
       </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
       </c>
       <c r="E3">
         <v>2024</v>
@@ -1257,4257 +1709,4536 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="7" t="str">
-        <f>VLOOKUP(G3,Cuentas!A:B,2,FALSE)</f>
-        <v>SANTANDER</v>
-      </c>
-      <c r="I3">
-        <f>VLOOKUP(G3,Cuentas!A:C,3,FALSE)</f>
-        <v>33715967729</v>
-      </c>
-      <c r="J3" t="str">
-        <f>VLOOKUP(G3,Cuentas!A:D,4,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="K3" t="str">
-        <f>VLOOKUP(G3,Cuentas!A:E,5,FALSE)</f>
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>VLOOKUP(H3,Cuentas!A:B,2,FALSE)</f>
+        <v>MACRO</v>
+      </c>
+      <c r="J3">
+        <f>VLOOKUP(H3,Cuentas!A:C,3,FALSE)</f>
+        <v>27402123848</v>
+      </c>
+      <c r="K3">
+        <f>VLOOKUP(H3,Cuentas!A:D,4,FALSE)</f>
+        <v>40212384</v>
+      </c>
+      <c r="L3" t="str">
+        <f>VLOOKUP(H3,Cuentas!A:E,5,FALSE)</f>
         <v>CAJA DE AHORROS</v>
       </c>
-      <c r="L3" t="str">
-        <f>VLOOKUP(G3,Cuentas!A:F,6,FALSE)</f>
-        <v>469-000671/8</v>
-      </c>
       <c r="M3" t="str">
-        <f>VLOOKUP(G3,Cuentas!A:G,7,FALSE)</f>
-        <v>0720469620000000067186</v>
+        <f>VLOOKUP(H3,Cuentas!A:F,6,FALSE)</f>
+        <v>430509498334255</v>
       </c>
       <c r="N3" t="str">
-        <f>VLOOKUP(G3,Cuentas!A:H,8,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="H4" s="7" t="e">
-        <f>VLOOKUP(G4,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" t="e">
-        <f>VLOOKUP(G4,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H3,Cuentas!A:G,7,FALSE)</f>
+        <v>2850305740094983342558</v>
+      </c>
+      <c r="O3" t="str">
+        <f>VLOOKUP(H3,Cuentas!A:H,8,FALSE)</f>
+        <v>mai.macro</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="I4" s="6" t="e">
+        <f>VLOOKUP(H4,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J4" t="e">
-        <f>VLOOKUP(G4,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H4,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K4" t="e">
-        <f>VLOOKUP(G4,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H4,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L4" t="e">
-        <f>VLOOKUP(G4,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H4,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M4" t="e">
-        <f>VLOOKUP(G4,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H4,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N4" t="e">
-        <f>VLOOKUP(G4,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="H5" s="7" t="e">
-        <f>VLOOKUP(G5,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <f>VLOOKUP(G5,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H4,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O4" t="e">
+        <f>VLOOKUP(H4,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="I5" s="6" t="e">
+        <f>VLOOKUP(H5,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J5" t="e">
-        <f>VLOOKUP(G5,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H5,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K5" t="e">
-        <f>VLOOKUP(G5,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H5,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L5" t="e">
-        <f>VLOOKUP(G5,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H5,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M5" t="e">
-        <f>VLOOKUP(G5,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H5,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N5" t="e">
-        <f>VLOOKUP(G5,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="H6" s="7" t="e">
-        <f>VLOOKUP(G6,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="e">
-        <f>VLOOKUP(G6,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H5,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="e">
+        <f>VLOOKUP(H5,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="I6" s="6" t="e">
+        <f>VLOOKUP(H6,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J6" t="e">
-        <f>VLOOKUP(G6,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H6,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K6" t="e">
-        <f>VLOOKUP(G6,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H6,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L6" t="e">
-        <f>VLOOKUP(G6,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H6,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M6" t="e">
-        <f>VLOOKUP(G6,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H6,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N6" t="e">
-        <f>VLOOKUP(G6,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="H7" s="7" t="e">
-        <f>VLOOKUP(G7,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" t="e">
-        <f>VLOOKUP(G7,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H6,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O6" t="e">
+        <f>VLOOKUP(H6,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="I7" s="6" t="e">
+        <f>VLOOKUP(H7,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J7" t="e">
-        <f>VLOOKUP(G7,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H7,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K7" t="e">
-        <f>VLOOKUP(G7,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H7,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L7" t="e">
-        <f>VLOOKUP(G7,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H7,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M7" t="e">
-        <f>VLOOKUP(G7,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H7,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N7" t="e">
-        <f>VLOOKUP(G7,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="H8" s="7" t="e">
-        <f>VLOOKUP(G8,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" t="e">
-        <f>VLOOKUP(G8,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H7,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O7" t="e">
+        <f>VLOOKUP(H7,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="I8" s="6" t="e">
+        <f>VLOOKUP(H8,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J8" t="e">
-        <f>VLOOKUP(G8,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H8,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K8" t="e">
-        <f>VLOOKUP(G8,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H8,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L8" t="e">
-        <f>VLOOKUP(G8,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H8,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M8" t="e">
-        <f>VLOOKUP(G8,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H8,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N8" t="e">
-        <f>VLOOKUP(G8,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="H9" s="7" t="e">
-        <f>VLOOKUP(G9,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" t="e">
-        <f>VLOOKUP(G9,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H8,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O8" t="e">
+        <f>VLOOKUP(H8,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="I9" s="6" t="e">
+        <f>VLOOKUP(H9,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J9" t="e">
-        <f>VLOOKUP(G9,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H9,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K9" t="e">
-        <f>VLOOKUP(G9,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H9,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L9" t="e">
-        <f>VLOOKUP(G9,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H9,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M9" t="e">
-        <f>VLOOKUP(G9,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H9,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N9" t="e">
-        <f>VLOOKUP(G9,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="H10" s="7" t="e">
-        <f>VLOOKUP(G10,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" t="e">
-        <f>VLOOKUP(G10,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H9,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O9" t="e">
+        <f>VLOOKUP(H9,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="I10" s="6" t="e">
+        <f>VLOOKUP(H10,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J10" t="e">
-        <f>VLOOKUP(G10,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H10,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K10" t="e">
-        <f>VLOOKUP(G10,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H10,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L10" t="e">
-        <f>VLOOKUP(G10,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H10,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M10" t="e">
-        <f>VLOOKUP(G10,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H10,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N10" t="e">
-        <f>VLOOKUP(G10,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="H11" s="7" t="e">
-        <f>VLOOKUP(G11,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" t="e">
-        <f>VLOOKUP(G11,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H10,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O10" t="e">
+        <f>VLOOKUP(H10,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="I11" s="6" t="e">
+        <f>VLOOKUP(H11,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J11" t="e">
-        <f>VLOOKUP(G11,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H11,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K11" t="e">
-        <f>VLOOKUP(G11,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H11,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L11" t="e">
-        <f>VLOOKUP(G11,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H11,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M11" t="e">
-        <f>VLOOKUP(G11,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H11,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N11" t="e">
-        <f>VLOOKUP(G11,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="H12" s="7" t="e">
-        <f>VLOOKUP(G12,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" t="e">
-        <f>VLOOKUP(G12,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H11,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O11" t="e">
+        <f>VLOOKUP(H11,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="I12" s="6" t="e">
+        <f>VLOOKUP(H12,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J12" t="e">
-        <f>VLOOKUP(G12,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H12,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K12" t="e">
-        <f>VLOOKUP(G12,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H12,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L12" t="e">
-        <f>VLOOKUP(G12,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H12,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M12" t="e">
-        <f>VLOOKUP(G12,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H12,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N12" t="e">
-        <f>VLOOKUP(G12,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="H13" s="7" t="e">
-        <f>VLOOKUP(G13,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" t="e">
-        <f>VLOOKUP(G13,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H12,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" t="e">
+        <f>VLOOKUP(H12,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="I13" s="6" t="e">
+        <f>VLOOKUP(H13,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J13" t="e">
-        <f>VLOOKUP(G13,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H13,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K13" t="e">
-        <f>VLOOKUP(G13,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H13,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L13" t="e">
-        <f>VLOOKUP(G13,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H13,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M13" t="e">
-        <f>VLOOKUP(G13,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H13,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N13" t="e">
-        <f>VLOOKUP(G13,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="H14" s="7" t="e">
-        <f>VLOOKUP(G14,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" t="e">
-        <f>VLOOKUP(G14,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H13,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O13" t="e">
+        <f>VLOOKUP(H13,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="I14" s="6" t="e">
+        <f>VLOOKUP(H14,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J14" t="e">
-        <f>VLOOKUP(G14,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H14,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K14" t="e">
-        <f>VLOOKUP(G14,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H14,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L14" t="e">
-        <f>VLOOKUP(G14,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H14,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M14" t="e">
-        <f>VLOOKUP(G14,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H14,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N14" t="e">
-        <f>VLOOKUP(G14,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="H15" s="7" t="e">
-        <f>VLOOKUP(G15,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" t="e">
-        <f>VLOOKUP(G15,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H14,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O14" t="e">
+        <f>VLOOKUP(H14,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="I15" s="6" t="e">
+        <f>VLOOKUP(H15,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J15" t="e">
-        <f>VLOOKUP(G15,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H15,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K15" t="e">
-        <f>VLOOKUP(G15,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H15,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L15" t="e">
-        <f>VLOOKUP(G15,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H15,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M15" t="e">
-        <f>VLOOKUP(G15,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H15,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N15" t="e">
-        <f>VLOOKUP(G15,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="H16" s="7" t="e">
-        <f>VLOOKUP(G16,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I16" t="e">
-        <f>VLOOKUP(G16,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H15,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O15" t="e">
+        <f>VLOOKUP(H15,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="I16" s="6" t="e">
+        <f>VLOOKUP(H16,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J16" t="e">
-        <f>VLOOKUP(G16,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H16,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K16" t="e">
-        <f>VLOOKUP(G16,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H16,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L16" t="e">
-        <f>VLOOKUP(G16,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H16,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M16" t="e">
-        <f>VLOOKUP(G16,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H16,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N16" t="e">
-        <f>VLOOKUP(G16,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="8:15">
-      <c r="H17" s="7" t="e">
-        <f>VLOOKUP(G17,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" t="e">
-        <f>VLOOKUP(G17,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H16,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" t="e">
+        <f>VLOOKUP(H16,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="9:18">
+      <c r="I17" s="6" t="e">
+        <f>VLOOKUP(H17,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J17" t="e">
-        <f>VLOOKUP(G17,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H17,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K17" t="e">
-        <f>VLOOKUP(G17,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H17,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L17" t="e">
-        <f>VLOOKUP(G17,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H17,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M17" t="e">
-        <f>VLOOKUP(G17,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H17,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N17" t="e">
-        <f>VLOOKUP(G17,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="8:15">
-      <c r="H18" s="7" t="e">
-        <f>VLOOKUP(G18,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" t="e">
-        <f>VLOOKUP(G18,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H17,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O17" t="e">
+        <f>VLOOKUP(H17,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="9:18">
+      <c r="I18" s="6" t="e">
+        <f>VLOOKUP(H18,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J18" t="e">
-        <f>VLOOKUP(G18,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H18,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K18" t="e">
-        <f>VLOOKUP(G18,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H18,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L18" t="e">
-        <f>VLOOKUP(G18,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H18,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M18" t="e">
-        <f>VLOOKUP(G18,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H18,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N18" t="e">
-        <f>VLOOKUP(G18,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="8:15">
-      <c r="H19" s="7" t="e">
-        <f>VLOOKUP(G19,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" t="e">
-        <f>VLOOKUP(G19,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H18,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" t="e">
+        <f>VLOOKUP(H18,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="9:18">
+      <c r="I19" s="6" t="e">
+        <f>VLOOKUP(H19,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J19" t="e">
-        <f>VLOOKUP(G19,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H19,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K19" t="e">
-        <f>VLOOKUP(G19,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H19,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L19" t="e">
-        <f>VLOOKUP(G19,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H19,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M19" t="e">
-        <f>VLOOKUP(G19,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H19,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N19" t="e">
-        <f>VLOOKUP(G19,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="8:15">
-      <c r="H20" s="7" t="e">
-        <f>VLOOKUP(G20,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" t="e">
-        <f>VLOOKUP(G20,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H19,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" t="e">
+        <f>VLOOKUP(H19,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="9:18">
+      <c r="I20" s="6" t="e">
+        <f>VLOOKUP(H20,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J20" t="e">
-        <f>VLOOKUP(G20,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H20,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K20" t="e">
-        <f>VLOOKUP(G20,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H20,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L20" t="e">
-        <f>VLOOKUP(G20,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H20,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M20" t="e">
-        <f>VLOOKUP(G20,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H20,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N20" t="e">
-        <f>VLOOKUP(G20,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="8:15">
-      <c r="H21" s="7" t="e">
-        <f>VLOOKUP(G21,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" t="e">
-        <f>VLOOKUP(G21,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H20,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" t="e">
+        <f>VLOOKUP(H20,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="9:18">
+      <c r="I21" s="6" t="e">
+        <f>VLOOKUP(H21,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J21" t="e">
-        <f>VLOOKUP(G21,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H21,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K21" t="e">
-        <f>VLOOKUP(G21,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H21,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L21" t="e">
-        <f>VLOOKUP(G21,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H21,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M21" t="e">
-        <f>VLOOKUP(G21,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H21,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N21" t="e">
-        <f>VLOOKUP(G21,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="8:15">
-      <c r="H22" s="7" t="e">
-        <f>VLOOKUP(G22,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" t="e">
-        <f>VLOOKUP(G22,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H21,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" t="e">
+        <f>VLOOKUP(H21,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="9:18">
+      <c r="I22" s="6" t="e">
+        <f>VLOOKUP(H22,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J22" t="e">
-        <f>VLOOKUP(G22,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H22,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K22" t="e">
-        <f>VLOOKUP(G22,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H22,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L22" t="e">
-        <f>VLOOKUP(G22,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H22,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M22" t="e">
-        <f>VLOOKUP(G22,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H22,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N22" t="e">
-        <f>VLOOKUP(G22,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="8:15">
-      <c r="H23" s="7" t="e">
-        <f>VLOOKUP(G23,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I23" t="e">
-        <f>VLOOKUP(G23,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H22,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" t="e">
+        <f>VLOOKUP(H22,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="9:18">
+      <c r="I23" s="6" t="e">
+        <f>VLOOKUP(H23,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J23" t="e">
-        <f>VLOOKUP(G23,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H23,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K23" t="e">
-        <f>VLOOKUP(G23,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H23,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L23" t="e">
-        <f>VLOOKUP(G23,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H23,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M23" t="e">
-        <f>VLOOKUP(G23,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H23,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N23" t="e">
-        <f>VLOOKUP(G23,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="8:15">
-      <c r="H24" s="7" t="e">
-        <f>VLOOKUP(G24,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I24" t="e">
-        <f>VLOOKUP(G24,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H23,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O23" t="e">
+        <f>VLOOKUP(H23,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="9:18">
+      <c r="I24" s="6" t="e">
+        <f>VLOOKUP(H24,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J24" t="e">
-        <f>VLOOKUP(G24,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H24,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K24" t="e">
-        <f>VLOOKUP(G24,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H24,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L24" t="e">
-        <f>VLOOKUP(G24,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H24,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M24" t="e">
-        <f>VLOOKUP(G24,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H24,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N24" t="e">
-        <f>VLOOKUP(G24,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="8:15">
-      <c r="H25" s="7" t="e">
-        <f>VLOOKUP(G25,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I25" t="e">
-        <f>VLOOKUP(G25,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H24,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O24" t="e">
+        <f>VLOOKUP(H24,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="9:18">
+      <c r="I25" s="6" t="e">
+        <f>VLOOKUP(H25,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J25" t="e">
-        <f>VLOOKUP(G25,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H25,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K25" t="e">
-        <f>VLOOKUP(G25,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H25,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L25" t="e">
-        <f>VLOOKUP(G25,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H25,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M25" t="e">
-        <f>VLOOKUP(G25,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H25,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N25" t="e">
-        <f>VLOOKUP(G25,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="8:15">
-      <c r="H26" s="7" t="e">
-        <f>VLOOKUP(G26,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I26" t="e">
-        <f>VLOOKUP(G26,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H25,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" t="e">
+        <f>VLOOKUP(H25,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="9:18">
+      <c r="I26" s="6" t="e">
+        <f>VLOOKUP(H26,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J26" t="e">
-        <f>VLOOKUP(G26,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H26,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K26" t="e">
-        <f>VLOOKUP(G26,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H26,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L26" t="e">
-        <f>VLOOKUP(G26,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H26,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M26" t="e">
-        <f>VLOOKUP(G26,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H26,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N26" t="e">
-        <f>VLOOKUP(G26,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="8:15">
-      <c r="H27" s="7" t="e">
-        <f>VLOOKUP(G27,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I27" t="e">
-        <f>VLOOKUP(G27,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H26,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="e">
+        <f>VLOOKUP(H26,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="9:18">
+      <c r="I27" s="6" t="e">
+        <f>VLOOKUP(H27,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J27" t="e">
-        <f>VLOOKUP(G27,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H27,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K27" t="e">
-        <f>VLOOKUP(G27,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H27,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L27" t="e">
-        <f>VLOOKUP(G27,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H27,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M27" t="e">
-        <f>VLOOKUP(G27,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H27,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N27" t="e">
-        <f>VLOOKUP(G27,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="8:15">
-      <c r="H28" s="7" t="e">
-        <f>VLOOKUP(G28,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I28" t="e">
-        <f>VLOOKUP(G28,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H27,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O27" t="e">
+        <f>VLOOKUP(H27,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="9:18">
+      <c r="I28" s="6" t="e">
+        <f>VLOOKUP(H28,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J28" t="e">
-        <f>VLOOKUP(G28,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H28,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K28" t="e">
-        <f>VLOOKUP(G28,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H28,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L28" t="e">
-        <f>VLOOKUP(G28,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H28,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M28" t="e">
-        <f>VLOOKUP(G28,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H28,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N28" t="e">
-        <f>VLOOKUP(G28,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="8:15">
-      <c r="H29" s="7" t="e">
-        <f>VLOOKUP(G29,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I29" t="e">
-        <f>VLOOKUP(G29,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H28,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O28" t="e">
+        <f>VLOOKUP(H28,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="9:18">
+      <c r="I29" s="6" t="e">
+        <f>VLOOKUP(H29,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J29" t="e">
-        <f>VLOOKUP(G29,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H29,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K29" t="e">
-        <f>VLOOKUP(G29,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H29,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L29" t="e">
-        <f>VLOOKUP(G29,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H29,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M29" t="e">
-        <f>VLOOKUP(G29,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H29,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N29" t="e">
-        <f>VLOOKUP(G29,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="8:15">
-      <c r="H30" s="7" t="e">
-        <f>VLOOKUP(G30,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I30" t="e">
-        <f>VLOOKUP(G30,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H29,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="e">
+        <f>VLOOKUP(H29,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="9:18">
+      <c r="I30" s="6" t="e">
+        <f>VLOOKUP(H30,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J30" t="e">
-        <f>VLOOKUP(G30,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H30,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K30" t="e">
-        <f>VLOOKUP(G30,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H30,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L30" t="e">
-        <f>VLOOKUP(G30,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H30,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M30" t="e">
-        <f>VLOOKUP(G30,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H30,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N30" t="e">
-        <f>VLOOKUP(G30,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="8:15">
-      <c r="H31" s="7" t="e">
-        <f>VLOOKUP(G31,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I31" t="e">
-        <f>VLOOKUP(G31,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H30,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O30" t="e">
+        <f>VLOOKUP(H30,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="9:18">
+      <c r="I31" s="6" t="e">
+        <f>VLOOKUP(H31,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J31" t="e">
-        <f>VLOOKUP(G31,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H31,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K31" t="e">
-        <f>VLOOKUP(G31,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H31,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L31" t="e">
-        <f>VLOOKUP(G31,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H31,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M31" t="e">
-        <f>VLOOKUP(G31,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H31,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N31" t="e">
-        <f>VLOOKUP(G31,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="8:15">
-      <c r="H32" s="7" t="e">
-        <f>VLOOKUP(G32,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I32" t="e">
-        <f>VLOOKUP(G32,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H31,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O31" t="e">
+        <f>VLOOKUP(H31,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="9:18">
+      <c r="I32" s="6" t="e">
+        <f>VLOOKUP(H32,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J32" t="e">
-        <f>VLOOKUP(G32,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H32,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K32" t="e">
-        <f>VLOOKUP(G32,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H32,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L32" t="e">
-        <f>VLOOKUP(G32,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H32,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M32" t="e">
-        <f>VLOOKUP(G32,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H32,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N32" t="e">
-        <f>VLOOKUP(G32,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="8:15">
-      <c r="H33" s="7" t="e">
-        <f>VLOOKUP(G33,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I33" t="e">
-        <f>VLOOKUP(G33,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H32,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" t="e">
+        <f>VLOOKUP(H32,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="9:18">
+      <c r="I33" s="6" t="e">
+        <f>VLOOKUP(H33,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J33" t="e">
-        <f>VLOOKUP(G33,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H33,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K33" t="e">
-        <f>VLOOKUP(G33,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H33,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L33" t="e">
-        <f>VLOOKUP(G33,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H33,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M33" t="e">
-        <f>VLOOKUP(G33,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H33,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N33" t="e">
-        <f>VLOOKUP(G33,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="8:15">
-      <c r="H34" s="7" t="e">
-        <f>VLOOKUP(G34,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I34" t="e">
-        <f>VLOOKUP(G34,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H33,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O33" t="e">
+        <f>VLOOKUP(H33,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="9:18">
+      <c r="I34" s="6" t="e">
+        <f>VLOOKUP(H34,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J34" t="e">
-        <f>VLOOKUP(G34,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H34,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K34" t="e">
-        <f>VLOOKUP(G34,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H34,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L34" t="e">
-        <f>VLOOKUP(G34,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H34,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M34" t="e">
-        <f>VLOOKUP(G34,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H34,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N34" t="e">
-        <f>VLOOKUP(G34,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="8:15">
-      <c r="H35" s="7" t="e">
-        <f>VLOOKUP(G35,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I35" t="e">
-        <f>VLOOKUP(G35,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H34,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O34" t="e">
+        <f>VLOOKUP(H34,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="9:18">
+      <c r="I35" s="6" t="e">
+        <f>VLOOKUP(H35,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J35" t="e">
-        <f>VLOOKUP(G35,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H35,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K35" t="e">
-        <f>VLOOKUP(G35,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H35,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L35" t="e">
-        <f>VLOOKUP(G35,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H35,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M35" t="e">
-        <f>VLOOKUP(G35,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H35,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N35" t="e">
-        <f>VLOOKUP(G35,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="8:15">
-      <c r="H36" s="7" t="e">
-        <f>VLOOKUP(G36,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I36" t="e">
-        <f>VLOOKUP(G36,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H35,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O35" t="e">
+        <f>VLOOKUP(H35,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="9:18">
+      <c r="I36" s="6" t="e">
+        <f>VLOOKUP(H36,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J36" t="e">
-        <f>VLOOKUP(G36,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H36,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K36" t="e">
-        <f>VLOOKUP(G36,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H36,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L36" t="e">
-        <f>VLOOKUP(G36,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H36,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M36" t="e">
-        <f>VLOOKUP(G36,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H36,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N36" t="e">
-        <f>VLOOKUP(G36,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="8:15">
-      <c r="H37" s="7" t="e">
-        <f>VLOOKUP(G37,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I37" t="e">
-        <f>VLOOKUP(G37,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H36,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O36" t="e">
+        <f>VLOOKUP(H36,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="9:18">
+      <c r="I37" s="6" t="e">
+        <f>VLOOKUP(H37,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J37" t="e">
-        <f>VLOOKUP(G37,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H37,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K37" t="e">
-        <f>VLOOKUP(G37,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H37,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L37" t="e">
-        <f>VLOOKUP(G37,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H37,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M37" t="e">
-        <f>VLOOKUP(G37,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H37,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N37" t="e">
-        <f>VLOOKUP(G37,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="8:15">
-      <c r="H38" s="7" t="e">
-        <f>VLOOKUP(G38,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" t="e">
-        <f>VLOOKUP(G38,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H37,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O37" t="e">
+        <f>VLOOKUP(H37,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="9:18">
+      <c r="I38" s="6" t="e">
+        <f>VLOOKUP(H38,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J38" t="e">
-        <f>VLOOKUP(G38,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H38,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K38" t="e">
-        <f>VLOOKUP(G38,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H38,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L38" t="e">
-        <f>VLOOKUP(G38,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H38,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M38" t="e">
-        <f>VLOOKUP(G38,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H38,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N38" t="e">
-        <f>VLOOKUP(G38,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="8:15">
-      <c r="H39" s="7" t="e">
-        <f>VLOOKUP(G39,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I39" t="e">
-        <f>VLOOKUP(G39,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H38,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O38" t="e">
+        <f>VLOOKUP(H38,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="9:18">
+      <c r="I39" s="6" t="e">
+        <f>VLOOKUP(H39,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J39" t="e">
-        <f>VLOOKUP(G39,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H39,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K39" t="e">
-        <f>VLOOKUP(G39,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H39,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L39" t="e">
-        <f>VLOOKUP(G39,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H39,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M39" t="e">
-        <f>VLOOKUP(G39,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H39,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N39" t="e">
-        <f>VLOOKUP(G39,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="8:15">
-      <c r="H40" s="7" t="e">
-        <f>VLOOKUP(G40,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" t="e">
-        <f>VLOOKUP(G40,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H39,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O39" t="e">
+        <f>VLOOKUP(H39,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+    </row>
+    <row r="40" spans="9:18">
+      <c r="I40" s="6" t="e">
+        <f>VLOOKUP(H40,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J40" t="e">
-        <f>VLOOKUP(G40,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H40,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K40" t="e">
-        <f>VLOOKUP(G40,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H40,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L40" t="e">
-        <f>VLOOKUP(G40,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H40,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M40" t="e">
-        <f>VLOOKUP(G40,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H40,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N40" t="e">
-        <f>VLOOKUP(G40,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="8:15">
-      <c r="H41" s="7" t="e">
-        <f>VLOOKUP(G41,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I41" t="e">
-        <f>VLOOKUP(G41,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H40,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O40" t="e">
+        <f>VLOOKUP(H40,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="9:18">
+      <c r="I41" s="6" t="e">
+        <f>VLOOKUP(H41,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J41" t="e">
-        <f>VLOOKUP(G41,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H41,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K41" t="e">
-        <f>VLOOKUP(G41,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H41,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L41" t="e">
-        <f>VLOOKUP(G41,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H41,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M41" t="e">
-        <f>VLOOKUP(G41,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H41,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N41" t="e">
-        <f>VLOOKUP(G41,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="8:15">
-      <c r="H42" s="7" t="e">
-        <f>VLOOKUP(G42,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I42" t="e">
-        <f>VLOOKUP(G42,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H41,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O41" t="e">
+        <f>VLOOKUP(H41,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+    </row>
+    <row r="42" spans="9:18">
+      <c r="I42" s="6" t="e">
+        <f>VLOOKUP(H42,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J42" t="e">
-        <f>VLOOKUP(G42,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H42,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K42" t="e">
-        <f>VLOOKUP(G42,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H42,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L42" t="e">
-        <f>VLOOKUP(G42,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H42,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M42" t="e">
-        <f>VLOOKUP(G42,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H42,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N42" t="e">
-        <f>VLOOKUP(G42,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="8:15">
-      <c r="H43" s="7" t="e">
-        <f>VLOOKUP(G43,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I43" t="e">
-        <f>VLOOKUP(G43,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H42,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O42" t="e">
+        <f>VLOOKUP(H42,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="9:18">
+      <c r="I43" s="6" t="e">
+        <f>VLOOKUP(H43,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J43" t="e">
-        <f>VLOOKUP(G43,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H43,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K43" t="e">
-        <f>VLOOKUP(G43,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H43,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L43" t="e">
-        <f>VLOOKUP(G43,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H43,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M43" t="e">
-        <f>VLOOKUP(G43,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H43,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N43" t="e">
-        <f>VLOOKUP(G43,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="8:15">
-      <c r="H44" s="7" t="e">
-        <f>VLOOKUP(G44,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I44" t="e">
-        <f>VLOOKUP(G44,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H43,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O43" t="e">
+        <f>VLOOKUP(H43,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="9:18">
+      <c r="I44" s="6" t="e">
+        <f>VLOOKUP(H44,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J44" t="e">
-        <f>VLOOKUP(G44,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H44,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K44" t="e">
-        <f>VLOOKUP(G44,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H44,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L44" t="e">
-        <f>VLOOKUP(G44,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H44,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M44" t="e">
-        <f>VLOOKUP(G44,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H44,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N44" t="e">
-        <f>VLOOKUP(G44,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="8:15">
-      <c r="H45" s="7" t="e">
-        <f>VLOOKUP(G45,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I45" t="e">
-        <f>VLOOKUP(G45,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H44,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O44" t="e">
+        <f>VLOOKUP(H44,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+    </row>
+    <row r="45" spans="9:18">
+      <c r="I45" s="6" t="e">
+        <f>VLOOKUP(H45,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J45" t="e">
-        <f>VLOOKUP(G45,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H45,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K45" t="e">
-        <f>VLOOKUP(G45,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H45,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L45" t="e">
-        <f>VLOOKUP(G45,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H45,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M45" t="e">
-        <f>VLOOKUP(G45,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H45,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N45" t="e">
-        <f>VLOOKUP(G45,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="8:15">
-      <c r="H46" s="7" t="e">
-        <f>VLOOKUP(G46,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" t="e">
-        <f>VLOOKUP(G46,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H45,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O45" t="e">
+        <f>VLOOKUP(H45,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+    </row>
+    <row r="46" spans="9:18">
+      <c r="I46" s="6" t="e">
+        <f>VLOOKUP(H46,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J46" t="e">
-        <f>VLOOKUP(G46,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H46,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K46" t="e">
-        <f>VLOOKUP(G46,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H46,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L46" t="e">
-        <f>VLOOKUP(G46,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H46,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M46" t="e">
-        <f>VLOOKUP(G46,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H46,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N46" t="e">
-        <f>VLOOKUP(G46,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="8:15">
-      <c r="H47" s="7" t="e">
-        <f>VLOOKUP(G47,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I47" t="e">
-        <f>VLOOKUP(G47,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H46,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O46" t="e">
+        <f>VLOOKUP(H46,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+    </row>
+    <row r="47" spans="9:18">
+      <c r="I47" s="6" t="e">
+        <f>VLOOKUP(H47,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J47" t="e">
-        <f>VLOOKUP(G47,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H47,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K47" t="e">
-        <f>VLOOKUP(G47,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H47,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L47" t="e">
-        <f>VLOOKUP(G47,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H47,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M47" t="e">
-        <f>VLOOKUP(G47,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H47,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N47" t="e">
-        <f>VLOOKUP(G47,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="8:15">
-      <c r="H48" s="7" t="e">
-        <f>VLOOKUP(G48,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I48" t="e">
-        <f>VLOOKUP(G48,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H47,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O47" t="e">
+        <f>VLOOKUP(H47,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+    </row>
+    <row r="48" spans="9:18">
+      <c r="I48" s="6" t="e">
+        <f>VLOOKUP(H48,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J48" t="e">
-        <f>VLOOKUP(G48,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H48,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K48" t="e">
-        <f>VLOOKUP(G48,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H48,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L48" t="e">
-        <f>VLOOKUP(G48,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H48,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M48" t="e">
-        <f>VLOOKUP(G48,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H48,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N48" t="e">
-        <f>VLOOKUP(G48,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="8:15">
-      <c r="H49" s="7" t="e">
-        <f>VLOOKUP(G49,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I49" t="e">
-        <f>VLOOKUP(G49,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H48,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O48" t="e">
+        <f>VLOOKUP(H48,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+    </row>
+    <row r="49" spans="9:18">
+      <c r="I49" s="6" t="e">
+        <f>VLOOKUP(H49,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J49" t="e">
-        <f>VLOOKUP(G49,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H49,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K49" t="e">
-        <f>VLOOKUP(G49,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H49,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L49" t="e">
-        <f>VLOOKUP(G49,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H49,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M49" t="e">
-        <f>VLOOKUP(G49,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H49,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N49" t="e">
-        <f>VLOOKUP(G49,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="8:15">
-      <c r="H50" s="7" t="e">
-        <f>VLOOKUP(G50,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" t="e">
-        <f>VLOOKUP(G50,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H49,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O49" t="e">
+        <f>VLOOKUP(H49,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+    </row>
+    <row r="50" spans="9:18">
+      <c r="I50" s="6" t="e">
+        <f>VLOOKUP(H50,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J50" t="e">
-        <f>VLOOKUP(G50,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H50,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K50" t="e">
-        <f>VLOOKUP(G50,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H50,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L50" t="e">
-        <f>VLOOKUP(G50,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H50,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M50" t="e">
-        <f>VLOOKUP(G50,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H50,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N50" t="e">
-        <f>VLOOKUP(G50,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="8:15">
-      <c r="H51" s="7" t="e">
-        <f>VLOOKUP(G51,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I51" t="e">
-        <f>VLOOKUP(G51,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H50,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O50" t="e">
+        <f>VLOOKUP(H50,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+    </row>
+    <row r="51" spans="9:18">
+      <c r="I51" s="6" t="e">
+        <f>VLOOKUP(H51,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J51" t="e">
-        <f>VLOOKUP(G51,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H51,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K51" t="e">
-        <f>VLOOKUP(G51,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H51,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L51" t="e">
-        <f>VLOOKUP(G51,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H51,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M51" t="e">
-        <f>VLOOKUP(G51,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H51,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N51" t="e">
-        <f>VLOOKUP(G51,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="8:15">
-      <c r="H52" s="7" t="e">
-        <f>VLOOKUP(G52,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" t="e">
-        <f>VLOOKUP(G52,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H51,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O51" t="e">
+        <f>VLOOKUP(H51,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+    </row>
+    <row r="52" spans="9:18">
+      <c r="I52" s="6" t="e">
+        <f>VLOOKUP(H52,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J52" t="e">
-        <f>VLOOKUP(G52,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H52,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K52" t="e">
-        <f>VLOOKUP(G52,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H52,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L52" t="e">
-        <f>VLOOKUP(G52,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H52,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M52" t="e">
-        <f>VLOOKUP(G52,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H52,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N52" t="e">
-        <f>VLOOKUP(G52,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="8:15">
-      <c r="H53" s="7" t="e">
-        <f>VLOOKUP(G53,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" t="e">
-        <f>VLOOKUP(G53,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H52,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O52" t="e">
+        <f>VLOOKUP(H52,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+    </row>
+    <row r="53" spans="9:18">
+      <c r="I53" s="6" t="e">
+        <f>VLOOKUP(H53,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <f>VLOOKUP(G53,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H53,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <f>VLOOKUP(G53,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H53,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L53" t="e">
-        <f>VLOOKUP(G53,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H53,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f>VLOOKUP(G53,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H53,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N53" t="e">
-        <f>VLOOKUP(G53,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="8:15">
-      <c r="H54" s="7" t="e">
-        <f>VLOOKUP(G54,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I54" t="e">
-        <f>VLOOKUP(G54,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H53,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O53" t="e">
+        <f>VLOOKUP(H53,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+    </row>
+    <row r="54" spans="9:18">
+      <c r="I54" s="6" t="e">
+        <f>VLOOKUP(H54,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f>VLOOKUP(G54,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H54,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f>VLOOKUP(G54,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H54,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f>VLOOKUP(G54,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H54,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f>VLOOKUP(G54,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H54,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N54" t="e">
-        <f>VLOOKUP(G54,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="8:15">
-      <c r="H55" s="7" t="e">
-        <f>VLOOKUP(G55,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I55" t="e">
-        <f>VLOOKUP(G55,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H54,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O54" t="e">
+        <f>VLOOKUP(H54,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+    </row>
+    <row r="55" spans="9:18">
+      <c r="I55" s="6" t="e">
+        <f>VLOOKUP(H55,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J55" t="e">
-        <f>VLOOKUP(G55,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H55,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K55" t="e">
-        <f>VLOOKUP(G55,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H55,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L55" t="e">
-        <f>VLOOKUP(G55,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H55,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f>VLOOKUP(G55,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H55,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N55" t="e">
-        <f>VLOOKUP(G55,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="8:15">
-      <c r="H56" s="7" t="e">
-        <f>VLOOKUP(G56,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I56" t="e">
-        <f>VLOOKUP(G56,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H55,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O55" t="e">
+        <f>VLOOKUP(H55,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+    </row>
+    <row r="56" spans="9:18">
+      <c r="I56" s="6" t="e">
+        <f>VLOOKUP(H56,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f>VLOOKUP(G56,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H56,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K56" t="e">
-        <f>VLOOKUP(G56,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H56,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L56" t="e">
-        <f>VLOOKUP(G56,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H56,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M56" t="e">
-        <f>VLOOKUP(G56,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H56,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N56" t="e">
-        <f>VLOOKUP(G56,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="8:15">
-      <c r="H57" s="7" t="e">
-        <f>VLOOKUP(G57,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I57" t="e">
-        <f>VLOOKUP(G57,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H56,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O56" t="e">
+        <f>VLOOKUP(H56,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+    </row>
+    <row r="57" spans="9:18">
+      <c r="I57" s="6" t="e">
+        <f>VLOOKUP(H57,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J57" t="e">
-        <f>VLOOKUP(G57,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H57,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K57" t="e">
-        <f>VLOOKUP(G57,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H57,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L57" t="e">
-        <f>VLOOKUP(G57,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H57,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M57" t="e">
-        <f>VLOOKUP(G57,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H57,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N57" t="e">
-        <f>VLOOKUP(G57,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="8:15">
-      <c r="H58" s="7" t="e">
-        <f>VLOOKUP(G58,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I58" t="e">
-        <f>VLOOKUP(G58,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H57,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O57" t="e">
+        <f>VLOOKUP(H57,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+    </row>
+    <row r="58" spans="9:18">
+      <c r="I58" s="6" t="e">
+        <f>VLOOKUP(H58,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J58" t="e">
-        <f>VLOOKUP(G58,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H58,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K58" t="e">
-        <f>VLOOKUP(G58,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H58,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L58" t="e">
-        <f>VLOOKUP(G58,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H58,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M58" t="e">
-        <f>VLOOKUP(G58,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H58,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N58" t="e">
-        <f>VLOOKUP(G58,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="8:15">
-      <c r="H59" s="7" t="e">
-        <f>VLOOKUP(G59,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I59" t="e">
-        <f>VLOOKUP(G59,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H58,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O58" t="e">
+        <f>VLOOKUP(H58,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+    </row>
+    <row r="59" spans="9:18">
+      <c r="I59" s="6" t="e">
+        <f>VLOOKUP(H59,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f>VLOOKUP(G59,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H59,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K59" t="e">
-        <f>VLOOKUP(G59,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H59,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L59" t="e">
-        <f>VLOOKUP(G59,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H59,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M59" t="e">
-        <f>VLOOKUP(G59,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H59,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N59" t="e">
-        <f>VLOOKUP(G59,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="8:15">
-      <c r="H60" s="7" t="e">
-        <f>VLOOKUP(G60,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I60" t="e">
-        <f>VLOOKUP(G60,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H59,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O59" t="e">
+        <f>VLOOKUP(H59,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+    </row>
+    <row r="60" spans="9:18">
+      <c r="I60" s="6" t="e">
+        <f>VLOOKUP(H60,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J60" t="e">
-        <f>VLOOKUP(G60,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H60,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K60" t="e">
-        <f>VLOOKUP(G60,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H60,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L60" t="e">
-        <f>VLOOKUP(G60,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H60,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M60" t="e">
-        <f>VLOOKUP(G60,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H60,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N60" t="e">
-        <f>VLOOKUP(G60,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="8:15">
-      <c r="H61" s="7" t="e">
-        <f>VLOOKUP(G61,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I61" t="e">
-        <f>VLOOKUP(G61,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H60,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O60" t="e">
+        <f>VLOOKUP(H60,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+    </row>
+    <row r="61" spans="9:18">
+      <c r="I61" s="6" t="e">
+        <f>VLOOKUP(H61,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J61" t="e">
-        <f>VLOOKUP(G61,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H61,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K61" t="e">
-        <f>VLOOKUP(G61,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H61,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L61" t="e">
-        <f>VLOOKUP(G61,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H61,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f>VLOOKUP(G61,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H61,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N61" t="e">
-        <f>VLOOKUP(G61,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="8:15">
-      <c r="H62" s="7" t="e">
-        <f>VLOOKUP(G62,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I62" t="e">
-        <f>VLOOKUP(G62,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H61,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O61" t="e">
+        <f>VLOOKUP(H61,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+    </row>
+    <row r="62" spans="9:18">
+      <c r="I62" s="6" t="e">
+        <f>VLOOKUP(H62,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f>VLOOKUP(G62,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H62,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K62" t="e">
-        <f>VLOOKUP(G62,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H62,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L62" t="e">
-        <f>VLOOKUP(G62,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H62,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M62" t="e">
-        <f>VLOOKUP(G62,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H62,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N62" t="e">
-        <f>VLOOKUP(G62,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="8:15">
-      <c r="H63" s="7" t="e">
-        <f>VLOOKUP(G63,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I63" t="e">
-        <f>VLOOKUP(G63,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H62,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O62" t="e">
+        <f>VLOOKUP(H62,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+    </row>
+    <row r="63" spans="9:18">
+      <c r="I63" s="6" t="e">
+        <f>VLOOKUP(H63,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f>VLOOKUP(G63,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H63,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K63" t="e">
-        <f>VLOOKUP(G63,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H63,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L63" t="e">
-        <f>VLOOKUP(G63,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H63,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M63" t="e">
-        <f>VLOOKUP(G63,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H63,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N63" t="e">
-        <f>VLOOKUP(G63,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="8:15">
-      <c r="H64" s="7" t="e">
-        <f>VLOOKUP(G64,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I64" t="e">
-        <f>VLOOKUP(G64,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H63,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O63" t="e">
+        <f>VLOOKUP(H63,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+    </row>
+    <row r="64" spans="9:18">
+      <c r="I64" s="6" t="e">
+        <f>VLOOKUP(H64,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J64" t="e">
-        <f>VLOOKUP(G64,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H64,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K64" t="e">
-        <f>VLOOKUP(G64,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H64,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L64" t="e">
-        <f>VLOOKUP(G64,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H64,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M64" t="e">
-        <f>VLOOKUP(G64,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H64,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N64" t="e">
-        <f>VLOOKUP(G64,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="8:15">
-      <c r="H65" s="7" t="e">
-        <f>VLOOKUP(G65,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I65" t="e">
-        <f>VLOOKUP(G65,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H64,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O64" t="e">
+        <f>VLOOKUP(H64,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+    </row>
+    <row r="65" spans="9:18">
+      <c r="I65" s="6" t="e">
+        <f>VLOOKUP(H65,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <f>VLOOKUP(G65,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H65,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K65" t="e">
-        <f>VLOOKUP(G65,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H65,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L65" t="e">
-        <f>VLOOKUP(G65,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H65,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M65" t="e">
-        <f>VLOOKUP(G65,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H65,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N65" t="e">
-        <f>VLOOKUP(G65,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="8:15">
-      <c r="H66" s="7" t="e">
-        <f>VLOOKUP(G66,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" t="e">
-        <f>VLOOKUP(G66,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H65,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O65" t="e">
+        <f>VLOOKUP(H65,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+    </row>
+    <row r="66" spans="9:18">
+      <c r="I66" s="6" t="e">
+        <f>VLOOKUP(H66,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <f>VLOOKUP(G66,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H66,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K66" t="e">
-        <f>VLOOKUP(G66,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H66,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L66" t="e">
-        <f>VLOOKUP(G66,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H66,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M66" t="e">
-        <f>VLOOKUP(G66,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H66,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N66" t="e">
-        <f>VLOOKUP(G66,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O66" s="4"/>
-    </row>
-    <row r="67" spans="8:15">
-      <c r="H67" s="7" t="e">
-        <f>VLOOKUP(G67,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I67" t="e">
-        <f>VLOOKUP(G67,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H66,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O66" t="e">
+        <f>VLOOKUP(H66,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+    </row>
+    <row r="67" spans="9:18">
+      <c r="I67" s="6" t="e">
+        <f>VLOOKUP(H67,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f>VLOOKUP(G67,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H67,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K67" t="e">
-        <f>VLOOKUP(G67,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H67,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L67" t="e">
-        <f>VLOOKUP(G67,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H67,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M67" t="e">
-        <f>VLOOKUP(G67,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H67,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N67" t="e">
-        <f>VLOOKUP(G67,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="8:15">
-      <c r="H68" s="7" t="e">
-        <f>VLOOKUP(G68,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I68" t="e">
-        <f>VLOOKUP(G68,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H67,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O67" t="e">
+        <f>VLOOKUP(H67,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+    </row>
+    <row r="68" spans="9:18">
+      <c r="I68" s="6" t="e">
+        <f>VLOOKUP(H68,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J68" t="e">
-        <f>VLOOKUP(G68,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H68,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K68" t="e">
-        <f>VLOOKUP(G68,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H68,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L68" t="e">
-        <f>VLOOKUP(G68,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H68,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M68" t="e">
-        <f>VLOOKUP(G68,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H68,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N68" t="e">
-        <f>VLOOKUP(G68,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="8:15">
-      <c r="H69" s="7" t="e">
-        <f>VLOOKUP(G69,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I69" t="e">
-        <f>VLOOKUP(G69,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H68,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O68" t="e">
+        <f>VLOOKUP(H68,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+    </row>
+    <row r="69" spans="9:18">
+      <c r="I69" s="6" t="e">
+        <f>VLOOKUP(H69,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f>VLOOKUP(G69,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H69,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K69" t="e">
-        <f>VLOOKUP(G69,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H69,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L69" t="e">
-        <f>VLOOKUP(G69,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H69,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M69" t="e">
-        <f>VLOOKUP(G69,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H69,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N69" t="e">
-        <f>VLOOKUP(G69,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="8:15">
-      <c r="H70" s="7" t="e">
-        <f>VLOOKUP(G70,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I70" t="e">
-        <f>VLOOKUP(G70,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H69,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O69" t="e">
+        <f>VLOOKUP(H69,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+    </row>
+    <row r="70" spans="9:18">
+      <c r="I70" s="6" t="e">
+        <f>VLOOKUP(H70,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <f>VLOOKUP(G70,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H70,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K70" t="e">
-        <f>VLOOKUP(G70,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H70,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L70" t="e">
-        <f>VLOOKUP(G70,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H70,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M70" t="e">
-        <f>VLOOKUP(G70,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H70,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N70" t="e">
-        <f>VLOOKUP(G70,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="8:15">
-      <c r="H71" s="7" t="e">
-        <f>VLOOKUP(G71,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I71" t="e">
-        <f>VLOOKUP(G71,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H70,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O70" t="e">
+        <f>VLOOKUP(H70,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+    </row>
+    <row r="71" spans="9:18">
+      <c r="I71" s="6" t="e">
+        <f>VLOOKUP(H71,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J71" t="e">
-        <f>VLOOKUP(G71,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H71,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K71" t="e">
-        <f>VLOOKUP(G71,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H71,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L71" t="e">
-        <f>VLOOKUP(G71,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H71,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f>VLOOKUP(G71,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H71,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N71" t="e">
-        <f>VLOOKUP(G71,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="8:15">
-      <c r="H72" s="7" t="e">
-        <f>VLOOKUP(G72,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I72" t="e">
-        <f>VLOOKUP(G72,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H71,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O71" t="e">
+        <f>VLOOKUP(H71,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+    </row>
+    <row r="72" spans="9:18">
+      <c r="I72" s="6" t="e">
+        <f>VLOOKUP(H72,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J72" t="e">
-        <f>VLOOKUP(G72,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H72,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K72" t="e">
-        <f>VLOOKUP(G72,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H72,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L72" t="e">
-        <f>VLOOKUP(G72,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H72,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M72" t="e">
-        <f>VLOOKUP(G72,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H72,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N72" t="e">
-        <f>VLOOKUP(G72,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="8:15">
-      <c r="H73" s="7" t="e">
-        <f>VLOOKUP(G73,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I73" t="e">
-        <f>VLOOKUP(G73,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H72,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O72" t="e">
+        <f>VLOOKUP(H72,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+    </row>
+    <row r="73" spans="9:18">
+      <c r="I73" s="6" t="e">
+        <f>VLOOKUP(H73,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f>VLOOKUP(G73,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H73,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K73" t="e">
-        <f>VLOOKUP(G73,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H73,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L73" t="e">
-        <f>VLOOKUP(G73,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H73,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M73" t="e">
-        <f>VLOOKUP(G73,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H73,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N73" t="e">
-        <f>VLOOKUP(G73,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="8:15">
-      <c r="H74" s="7" t="e">
-        <f>VLOOKUP(G74,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I74" t="e">
-        <f>VLOOKUP(G74,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H73,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O73" t="e">
+        <f>VLOOKUP(H73,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+    </row>
+    <row r="74" spans="9:18">
+      <c r="I74" s="6" t="e">
+        <f>VLOOKUP(H74,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J74" t="e">
-        <f>VLOOKUP(G74,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H74,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K74" t="e">
-        <f>VLOOKUP(G74,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H74,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L74" t="e">
-        <f>VLOOKUP(G74,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H74,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f>VLOOKUP(G74,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H74,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N74" t="e">
-        <f>VLOOKUP(G74,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="8:15">
-      <c r="H75" s="7" t="e">
-        <f>VLOOKUP(G75,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I75" t="e">
-        <f>VLOOKUP(G75,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H74,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O74" t="e">
+        <f>VLOOKUP(H74,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+    </row>
+    <row r="75" spans="9:18">
+      <c r="I75" s="6" t="e">
+        <f>VLOOKUP(H75,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <f>VLOOKUP(G75,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H75,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K75" t="e">
-        <f>VLOOKUP(G75,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H75,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L75" t="e">
-        <f>VLOOKUP(G75,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H75,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M75" t="e">
-        <f>VLOOKUP(G75,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H75,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N75" t="e">
-        <f>VLOOKUP(G75,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="8:15">
-      <c r="H76" s="7" t="e">
-        <f>VLOOKUP(G76,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I76" t="e">
-        <f>VLOOKUP(G76,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H75,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O75" t="e">
+        <f>VLOOKUP(H75,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+    </row>
+    <row r="76" spans="9:18">
+      <c r="I76" s="6" t="e">
+        <f>VLOOKUP(H76,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J76" t="e">
-        <f>VLOOKUP(G76,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H76,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K76" t="e">
-        <f>VLOOKUP(G76,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H76,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L76" t="e">
-        <f>VLOOKUP(G76,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H76,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f>VLOOKUP(G76,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H76,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N76" t="e">
-        <f>VLOOKUP(G76,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="8:15">
-      <c r="H77" s="7" t="e">
-        <f>VLOOKUP(G77,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I77" t="e">
-        <f>VLOOKUP(G77,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H76,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O76" t="e">
+        <f>VLOOKUP(H76,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+    </row>
+    <row r="77" spans="9:18">
+      <c r="I77" s="6" t="e">
+        <f>VLOOKUP(H77,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f>VLOOKUP(G77,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H77,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K77" t="e">
-        <f>VLOOKUP(G77,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H77,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L77" t="e">
-        <f>VLOOKUP(G77,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H77,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M77" t="e">
-        <f>VLOOKUP(G77,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H77,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N77" t="e">
-        <f>VLOOKUP(G77,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="8:15">
-      <c r="H78" s="7" t="e">
-        <f>VLOOKUP(G78,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I78" t="e">
-        <f>VLOOKUP(G78,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H77,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O77" t="e">
+        <f>VLOOKUP(H77,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+    </row>
+    <row r="78" spans="9:18">
+      <c r="I78" s="6" t="e">
+        <f>VLOOKUP(H78,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J78" t="e">
-        <f>VLOOKUP(G78,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H78,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K78" t="e">
-        <f>VLOOKUP(G78,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H78,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L78" t="e">
-        <f>VLOOKUP(G78,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H78,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f>VLOOKUP(G78,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H78,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N78" t="e">
-        <f>VLOOKUP(G78,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="8:15">
-      <c r="H79" s="7" t="e">
-        <f>VLOOKUP(G79,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I79" t="e">
-        <f>VLOOKUP(G79,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H78,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O78" t="e">
+        <f>VLOOKUP(H78,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+    </row>
+    <row r="79" spans="9:18">
+      <c r="I79" s="6" t="e">
+        <f>VLOOKUP(H79,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J79" t="e">
-        <f>VLOOKUP(G79,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H79,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K79" t="e">
-        <f>VLOOKUP(G79,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H79,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L79" t="e">
-        <f>VLOOKUP(G79,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H79,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M79" t="e">
-        <f>VLOOKUP(G79,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H79,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N79" t="e">
-        <f>VLOOKUP(G79,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="8:15">
-      <c r="H80" s="7" t="e">
-        <f>VLOOKUP(G80,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I80" t="e">
-        <f>VLOOKUP(G80,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H79,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O79" t="e">
+        <f>VLOOKUP(H79,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+    </row>
+    <row r="80" spans="9:18">
+      <c r="I80" s="6" t="e">
+        <f>VLOOKUP(H80,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J80" t="e">
-        <f>VLOOKUP(G80,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H80,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K80" t="e">
-        <f>VLOOKUP(G80,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H80,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L80" t="e">
-        <f>VLOOKUP(G80,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H80,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M80" t="e">
-        <f>VLOOKUP(G80,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H80,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N80" t="e">
-        <f>VLOOKUP(G80,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O80" s="4"/>
-    </row>
-    <row r="81" spans="8:15">
-      <c r="H81" s="7" t="e">
-        <f>VLOOKUP(G81,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I81" t="e">
-        <f>VLOOKUP(G81,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H80,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O80" t="e">
+        <f>VLOOKUP(H80,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+    </row>
+    <row r="81" spans="9:18">
+      <c r="I81" s="6" t="e">
+        <f>VLOOKUP(H81,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <f>VLOOKUP(G81,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H81,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K81" t="e">
-        <f>VLOOKUP(G81,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H81,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L81" t="e">
-        <f>VLOOKUP(G81,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H81,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M81" t="e">
-        <f>VLOOKUP(G81,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H81,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N81" t="e">
-        <f>VLOOKUP(G81,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O81" s="4"/>
-    </row>
-    <row r="82" spans="8:15">
-      <c r="H82" s="7" t="e">
-        <f>VLOOKUP(G82,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I82" t="e">
-        <f>VLOOKUP(G82,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H81,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O81" t="e">
+        <f>VLOOKUP(H81,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+    </row>
+    <row r="82" spans="9:18">
+      <c r="I82" s="6" t="e">
+        <f>VLOOKUP(H82,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J82" t="e">
-        <f>VLOOKUP(G82,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H82,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K82" t="e">
-        <f>VLOOKUP(G82,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H82,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L82" t="e">
-        <f>VLOOKUP(G82,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H82,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M82" t="e">
-        <f>VLOOKUP(G82,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H82,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N82" t="e">
-        <f>VLOOKUP(G82,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O82" s="4"/>
-    </row>
-    <row r="83" spans="8:15">
-      <c r="H83" s="7" t="e">
-        <f>VLOOKUP(G83,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I83" t="e">
-        <f>VLOOKUP(G83,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H82,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O82" t="e">
+        <f>VLOOKUP(H82,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+    </row>
+    <row r="83" spans="9:18">
+      <c r="I83" s="6" t="e">
+        <f>VLOOKUP(H83,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J83" t="e">
-        <f>VLOOKUP(G83,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H83,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K83" t="e">
-        <f>VLOOKUP(G83,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H83,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L83" t="e">
-        <f>VLOOKUP(G83,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H83,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M83" t="e">
-        <f>VLOOKUP(G83,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H83,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N83" t="e">
-        <f>VLOOKUP(G83,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="8:15">
-      <c r="H84" s="7" t="e">
-        <f>VLOOKUP(G84,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I84" t="e">
-        <f>VLOOKUP(G84,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H83,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O83" t="e">
+        <f>VLOOKUP(H83,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+    </row>
+    <row r="84" spans="9:18">
+      <c r="I84" s="6" t="e">
+        <f>VLOOKUP(H84,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J84" t="e">
-        <f>VLOOKUP(G84,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H84,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K84" t="e">
-        <f>VLOOKUP(G84,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H84,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L84" t="e">
-        <f>VLOOKUP(G84,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H84,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f>VLOOKUP(G84,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H84,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N84" t="e">
-        <f>VLOOKUP(G84,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O84" s="4"/>
-    </row>
-    <row r="85" spans="8:15">
-      <c r="H85" s="7" t="e">
-        <f>VLOOKUP(G85,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I85" t="e">
-        <f>VLOOKUP(G85,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H84,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O84" t="e">
+        <f>VLOOKUP(H84,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+    </row>
+    <row r="85" spans="9:18">
+      <c r="I85" s="6" t="e">
+        <f>VLOOKUP(H85,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f>VLOOKUP(G85,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H85,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K85" t="e">
-        <f>VLOOKUP(G85,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H85,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L85" t="e">
-        <f>VLOOKUP(G85,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H85,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M85" t="e">
-        <f>VLOOKUP(G85,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H85,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N85" t="e">
-        <f>VLOOKUP(G85,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O85" s="4"/>
-    </row>
-    <row r="86" spans="8:15">
-      <c r="H86" s="7" t="e">
-        <f>VLOOKUP(G86,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" t="e">
-        <f>VLOOKUP(G86,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H85,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O85" t="e">
+        <f>VLOOKUP(H85,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+    </row>
+    <row r="86" spans="9:18">
+      <c r="I86" s="6" t="e">
+        <f>VLOOKUP(H86,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J86" t="e">
-        <f>VLOOKUP(G86,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H86,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K86" t="e">
-        <f>VLOOKUP(G86,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H86,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L86" t="e">
-        <f>VLOOKUP(G86,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H86,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M86" t="e">
-        <f>VLOOKUP(G86,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H86,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N86" t="e">
-        <f>VLOOKUP(G86,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="8:15">
-      <c r="H87" s="7" t="e">
-        <f>VLOOKUP(G87,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I87" t="e">
-        <f>VLOOKUP(G87,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H86,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O86" t="e">
+        <f>VLOOKUP(H86,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+    </row>
+    <row r="87" spans="9:18">
+      <c r="I87" s="6" t="e">
+        <f>VLOOKUP(H87,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J87" t="e">
-        <f>VLOOKUP(G87,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H87,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K87" t="e">
-        <f>VLOOKUP(G87,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H87,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L87" t="e">
-        <f>VLOOKUP(G87,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H87,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M87" t="e">
-        <f>VLOOKUP(G87,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H87,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N87" t="e">
-        <f>VLOOKUP(G87,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="8:15">
-      <c r="H88" s="7" t="e">
-        <f>VLOOKUP(G88,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" t="e">
-        <f>VLOOKUP(G88,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H87,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O87" t="e">
+        <f>VLOOKUP(H87,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+    </row>
+    <row r="88" spans="9:18">
+      <c r="I88" s="6" t="e">
+        <f>VLOOKUP(H88,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J88" t="e">
-        <f>VLOOKUP(G88,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H88,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K88" t="e">
-        <f>VLOOKUP(G88,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H88,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L88" t="e">
-        <f>VLOOKUP(G88,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H88,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M88" t="e">
-        <f>VLOOKUP(G88,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H88,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N88" t="e">
-        <f>VLOOKUP(G88,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O88" s="4"/>
-    </row>
-    <row r="89" spans="8:15">
-      <c r="H89" s="7" t="e">
-        <f>VLOOKUP(G89,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I89" t="e">
-        <f>VLOOKUP(G89,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H88,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O88" t="e">
+        <f>VLOOKUP(H88,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+    </row>
+    <row r="89" spans="9:18">
+      <c r="I89" s="6" t="e">
+        <f>VLOOKUP(H89,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J89" t="e">
-        <f>VLOOKUP(G89,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H89,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K89" t="e">
-        <f>VLOOKUP(G89,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H89,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L89" t="e">
-        <f>VLOOKUP(G89,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H89,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M89" t="e">
-        <f>VLOOKUP(G89,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H89,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N89" t="e">
-        <f>VLOOKUP(G89,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O89" s="4"/>
-    </row>
-    <row r="90" spans="8:15">
-      <c r="H90" s="7" t="e">
-        <f>VLOOKUP(G90,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I90" t="e">
-        <f>VLOOKUP(G90,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H89,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O89" t="e">
+        <f>VLOOKUP(H89,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+    </row>
+    <row r="90" spans="9:18">
+      <c r="I90" s="6" t="e">
+        <f>VLOOKUP(H90,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J90" t="e">
-        <f>VLOOKUP(G90,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H90,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K90" t="e">
-        <f>VLOOKUP(G90,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H90,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L90" t="e">
-        <f>VLOOKUP(G90,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H90,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M90" t="e">
-        <f>VLOOKUP(G90,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H90,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N90" t="e">
-        <f>VLOOKUP(G90,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="8:15">
-      <c r="H91" s="7" t="e">
-        <f>VLOOKUP(G91,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I91" t="e">
-        <f>VLOOKUP(G91,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H90,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O90" t="e">
+        <f>VLOOKUP(H90,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+    </row>
+    <row r="91" spans="9:18">
+      <c r="I91" s="6" t="e">
+        <f>VLOOKUP(H91,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J91" t="e">
-        <f>VLOOKUP(G91,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H91,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K91" t="e">
-        <f>VLOOKUP(G91,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H91,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L91" t="e">
-        <f>VLOOKUP(G91,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H91,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M91" t="e">
-        <f>VLOOKUP(G91,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H91,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N91" t="e">
-        <f>VLOOKUP(G91,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O91" s="4"/>
-    </row>
-    <row r="92" spans="8:15">
-      <c r="H92" s="7" t="e">
-        <f>VLOOKUP(G92,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I92" t="e">
-        <f>VLOOKUP(G92,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H91,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O91" t="e">
+        <f>VLOOKUP(H91,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+    </row>
+    <row r="92" spans="9:18">
+      <c r="I92" s="6" t="e">
+        <f>VLOOKUP(H92,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J92" t="e">
-        <f>VLOOKUP(G92,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H92,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K92" t="e">
-        <f>VLOOKUP(G92,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H92,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L92" t="e">
-        <f>VLOOKUP(G92,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H92,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M92" t="e">
-        <f>VLOOKUP(G92,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H92,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N92" t="e">
-        <f>VLOOKUP(G92,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O92" s="4"/>
-    </row>
-    <row r="93" spans="8:15">
-      <c r="H93" s="7" t="e">
-        <f>VLOOKUP(G93,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I93" t="e">
-        <f>VLOOKUP(G93,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H92,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O92" t="e">
+        <f>VLOOKUP(H92,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+    </row>
+    <row r="93" spans="9:18">
+      <c r="I93" s="6" t="e">
+        <f>VLOOKUP(H93,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J93" t="e">
-        <f>VLOOKUP(G93,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H93,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K93" t="e">
-        <f>VLOOKUP(G93,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H93,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L93" t="e">
-        <f>VLOOKUP(G93,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H93,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M93" t="e">
-        <f>VLOOKUP(G93,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H93,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N93" t="e">
-        <f>VLOOKUP(G93,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="8:15">
-      <c r="H94" s="7" t="e">
-        <f>VLOOKUP(G94,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I94" t="e">
-        <f>VLOOKUP(G94,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H93,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O93" t="e">
+        <f>VLOOKUP(H93,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+    </row>
+    <row r="94" spans="9:18">
+      <c r="I94" s="6" t="e">
+        <f>VLOOKUP(H94,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J94" t="e">
-        <f>VLOOKUP(G94,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H94,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K94" t="e">
-        <f>VLOOKUP(G94,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H94,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L94" t="e">
-        <f>VLOOKUP(G94,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H94,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M94" t="e">
-        <f>VLOOKUP(G94,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H94,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N94" t="e">
-        <f>VLOOKUP(G94,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="8:15">
-      <c r="H95" s="7" t="e">
-        <f>VLOOKUP(G95,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I95" t="e">
-        <f>VLOOKUP(G95,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H94,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O94" t="e">
+        <f>VLOOKUP(H94,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+    </row>
+    <row r="95" spans="9:18">
+      <c r="I95" s="6" t="e">
+        <f>VLOOKUP(H95,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J95" t="e">
-        <f>VLOOKUP(G95,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H95,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K95" t="e">
-        <f>VLOOKUP(G95,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H95,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L95" t="e">
-        <f>VLOOKUP(G95,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H95,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M95" t="e">
-        <f>VLOOKUP(G95,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H95,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N95" t="e">
-        <f>VLOOKUP(G95,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="8:15">
-      <c r="H96" s="7" t="e">
-        <f>VLOOKUP(G96,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I96" t="e">
-        <f>VLOOKUP(G96,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H95,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O95" t="e">
+        <f>VLOOKUP(H95,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+    </row>
+    <row r="96" spans="9:18">
+      <c r="I96" s="6" t="e">
+        <f>VLOOKUP(H96,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J96" t="e">
-        <f>VLOOKUP(G96,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H96,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K96" t="e">
-        <f>VLOOKUP(G96,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H96,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L96" t="e">
-        <f>VLOOKUP(G96,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H96,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M96" t="e">
-        <f>VLOOKUP(G96,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H96,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N96" t="e">
-        <f>VLOOKUP(G96,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="8:15">
-      <c r="H97" s="7" t="e">
-        <f>VLOOKUP(G97,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I97" t="e">
-        <f>VLOOKUP(G97,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H96,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O96" t="e">
+        <f>VLOOKUP(H96,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+    </row>
+    <row r="97" spans="9:18">
+      <c r="I97" s="6" t="e">
+        <f>VLOOKUP(H97,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J97" t="e">
-        <f>VLOOKUP(G97,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H97,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K97" t="e">
-        <f>VLOOKUP(G97,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H97,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L97" t="e">
-        <f>VLOOKUP(G97,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H97,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M97" t="e">
-        <f>VLOOKUP(G97,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H97,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N97" t="e">
-        <f>VLOOKUP(G97,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="8:15">
-      <c r="H98" s="7" t="e">
-        <f>VLOOKUP(G98,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I98" t="e">
-        <f>VLOOKUP(G98,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H97,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O97" t="e">
+        <f>VLOOKUP(H97,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+    </row>
+    <row r="98" spans="9:18">
+      <c r="I98" s="6" t="e">
+        <f>VLOOKUP(H98,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J98" t="e">
-        <f>VLOOKUP(G98,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H98,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K98" t="e">
-        <f>VLOOKUP(G98,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H98,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L98" t="e">
-        <f>VLOOKUP(G98,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H98,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M98" t="e">
-        <f>VLOOKUP(G98,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H98,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N98" t="e">
-        <f>VLOOKUP(G98,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="8:15">
-      <c r="H99" s="7" t="e">
-        <f>VLOOKUP(G99,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I99" t="e">
-        <f>VLOOKUP(G99,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H98,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O98" t="e">
+        <f>VLOOKUP(H98,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+    </row>
+    <row r="99" spans="9:18">
+      <c r="I99" s="6" t="e">
+        <f>VLOOKUP(H99,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J99" t="e">
-        <f>VLOOKUP(G99,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H99,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K99" t="e">
-        <f>VLOOKUP(G99,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H99,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L99" t="e">
-        <f>VLOOKUP(G99,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H99,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M99" t="e">
-        <f>VLOOKUP(G99,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H99,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N99" t="e">
-        <f>VLOOKUP(G99,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="8:15">
-      <c r="H100" s="7" t="e">
-        <f>VLOOKUP(G100,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I100" t="e">
-        <f>VLOOKUP(G100,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H99,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O99" t="e">
+        <f>VLOOKUP(H99,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+    </row>
+    <row r="100" spans="9:18">
+      <c r="I100" s="6" t="e">
+        <f>VLOOKUP(H100,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J100" t="e">
-        <f>VLOOKUP(G100,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H100,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K100" t="e">
-        <f>VLOOKUP(G100,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H100,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L100" t="e">
-        <f>VLOOKUP(G100,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H100,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M100" t="e">
-        <f>VLOOKUP(G100,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H100,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N100" t="e">
-        <f>VLOOKUP(G100,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="8:15">
-      <c r="H101" s="7" t="e">
-        <f>VLOOKUP(G101,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" t="e">
-        <f>VLOOKUP(G101,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H100,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O100" t="e">
+        <f>VLOOKUP(H100,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+    </row>
+    <row r="101" spans="9:18">
+      <c r="I101" s="6" t="e">
+        <f>VLOOKUP(H101,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J101" t="e">
-        <f>VLOOKUP(G101,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H101,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K101" t="e">
-        <f>VLOOKUP(G101,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H101,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L101" t="e">
-        <f>VLOOKUP(G101,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H101,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M101" t="e">
-        <f>VLOOKUP(G101,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H101,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N101" t="e">
-        <f>VLOOKUP(G101,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="8:15">
-      <c r="H102" s="7" t="e">
-        <f>VLOOKUP(G102,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I102" t="e">
-        <f>VLOOKUP(G102,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H101,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O101" t="e">
+        <f>VLOOKUP(H101,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+    </row>
+    <row r="102" spans="9:18">
+      <c r="I102" s="6" t="e">
+        <f>VLOOKUP(H102,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J102" t="e">
-        <f>VLOOKUP(G102,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H102,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K102" t="e">
-        <f>VLOOKUP(G102,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H102,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L102" t="e">
-        <f>VLOOKUP(G102,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H102,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M102" t="e">
-        <f>VLOOKUP(G102,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H102,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N102" t="e">
-        <f>VLOOKUP(G102,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O102" s="4"/>
-    </row>
-    <row r="103" spans="8:15">
-      <c r="H103" s="7" t="e">
-        <f>VLOOKUP(G103,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I103" t="e">
-        <f>VLOOKUP(G103,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H102,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O102" t="e">
+        <f>VLOOKUP(H102,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+    </row>
+    <row r="103" spans="9:18">
+      <c r="I103" s="6" t="e">
+        <f>VLOOKUP(H103,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J103" t="e">
-        <f>VLOOKUP(G103,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H103,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K103" t="e">
-        <f>VLOOKUP(G103,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H103,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L103" t="e">
-        <f>VLOOKUP(G103,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H103,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M103" t="e">
-        <f>VLOOKUP(G103,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H103,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N103" t="e">
-        <f>VLOOKUP(G103,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="8:15">
-      <c r="H104" s="7" t="e">
-        <f>VLOOKUP(G104,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" t="e">
-        <f>VLOOKUP(G104,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H103,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O103" t="e">
+        <f>VLOOKUP(H103,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+    </row>
+    <row r="104" spans="9:18">
+      <c r="I104" s="6" t="e">
+        <f>VLOOKUP(H104,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J104" t="e">
-        <f>VLOOKUP(G104,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H104,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K104" t="e">
-        <f>VLOOKUP(G104,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H104,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L104" t="e">
-        <f>VLOOKUP(G104,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H104,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M104" t="e">
-        <f>VLOOKUP(G104,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H104,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N104" t="e">
-        <f>VLOOKUP(G104,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O104" s="4"/>
-    </row>
-    <row r="105" spans="8:15">
-      <c r="H105" s="7" t="e">
-        <f>VLOOKUP(G105,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" t="e">
-        <f>VLOOKUP(G105,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H104,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O104" t="e">
+        <f>VLOOKUP(H104,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+    </row>
+    <row r="105" spans="9:18">
+      <c r="I105" s="6" t="e">
+        <f>VLOOKUP(H105,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J105" t="e">
-        <f>VLOOKUP(G105,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H105,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K105" t="e">
-        <f>VLOOKUP(G105,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H105,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L105" t="e">
-        <f>VLOOKUP(G105,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H105,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M105" t="e">
-        <f>VLOOKUP(G105,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H105,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N105" t="e">
-        <f>VLOOKUP(G105,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="8:15">
-      <c r="H106" s="7" t="e">
-        <f>VLOOKUP(G106,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
-        <f>VLOOKUP(G106,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H105,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O105" t="e">
+        <f>VLOOKUP(H105,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+    </row>
+    <row r="106" spans="9:18">
+      <c r="I106" s="6" t="e">
+        <f>VLOOKUP(H106,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J106" t="e">
-        <f>VLOOKUP(G106,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H106,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K106" t="e">
-        <f>VLOOKUP(G106,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H106,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L106" t="e">
-        <f>VLOOKUP(G106,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H106,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M106" t="e">
-        <f>VLOOKUP(G106,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H106,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N106" t="e">
-        <f>VLOOKUP(G106,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O106" s="4"/>
-    </row>
-    <row r="107" spans="8:15">
-      <c r="H107" s="7" t="e">
-        <f>VLOOKUP(G107,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" t="e">
-        <f>VLOOKUP(G107,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H106,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O106" t="e">
+        <f>VLOOKUP(H106,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+    </row>
+    <row r="107" spans="9:18">
+      <c r="I107" s="6" t="e">
+        <f>VLOOKUP(H107,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J107" t="e">
-        <f>VLOOKUP(G107,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H107,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K107" t="e">
-        <f>VLOOKUP(G107,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H107,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L107" t="e">
-        <f>VLOOKUP(G107,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H107,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M107" t="e">
-        <f>VLOOKUP(G107,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H107,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N107" t="e">
-        <f>VLOOKUP(G107,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="8:15">
-      <c r="H108" s="7" t="e">
-        <f>VLOOKUP(G108,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" t="e">
-        <f>VLOOKUP(G108,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H107,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O107" t="e">
+        <f>VLOOKUP(H107,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+    </row>
+    <row r="108" spans="9:18">
+      <c r="I108" s="6" t="e">
+        <f>VLOOKUP(H108,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J108" t="e">
-        <f>VLOOKUP(G108,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H108,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K108" t="e">
-        <f>VLOOKUP(G108,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H108,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L108" t="e">
-        <f>VLOOKUP(G108,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H108,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M108" t="e">
-        <f>VLOOKUP(G108,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H108,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N108" t="e">
-        <f>VLOOKUP(G108,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="8:15">
-      <c r="H109" s="7" t="e">
-        <f>VLOOKUP(G109,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" t="e">
-        <f>VLOOKUP(G109,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H108,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O108" t="e">
+        <f>VLOOKUP(H108,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+    </row>
+    <row r="109" spans="9:18">
+      <c r="I109" s="6" t="e">
+        <f>VLOOKUP(H109,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J109" t="e">
-        <f>VLOOKUP(G109,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H109,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K109" t="e">
-        <f>VLOOKUP(G109,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H109,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L109" t="e">
-        <f>VLOOKUP(G109,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H109,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M109" t="e">
-        <f>VLOOKUP(G109,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H109,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N109" t="e">
-        <f>VLOOKUP(G109,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O109" s="4"/>
-    </row>
-    <row r="110" spans="8:15">
-      <c r="H110" s="7" t="e">
-        <f>VLOOKUP(G110,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" t="e">
-        <f>VLOOKUP(G110,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H109,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O109" t="e">
+        <f>VLOOKUP(H109,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+    </row>
+    <row r="110" spans="9:18">
+      <c r="I110" s="6" t="e">
+        <f>VLOOKUP(H110,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J110" t="e">
-        <f>VLOOKUP(G110,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H110,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K110" t="e">
-        <f>VLOOKUP(G110,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H110,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L110" t="e">
-        <f>VLOOKUP(G110,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H110,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M110" t="e">
-        <f>VLOOKUP(G110,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H110,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N110" t="e">
-        <f>VLOOKUP(G110,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="8:15">
-      <c r="H111" s="7" t="e">
-        <f>VLOOKUP(G111,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" t="e">
-        <f>VLOOKUP(G111,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H110,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O110" t="e">
+        <f>VLOOKUP(H110,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+    </row>
+    <row r="111" spans="9:18">
+      <c r="I111" s="6" t="e">
+        <f>VLOOKUP(H111,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J111" t="e">
-        <f>VLOOKUP(G111,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H111,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K111" t="e">
-        <f>VLOOKUP(G111,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H111,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L111" t="e">
-        <f>VLOOKUP(G111,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H111,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M111" t="e">
-        <f>VLOOKUP(G111,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H111,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N111" t="e">
-        <f>VLOOKUP(G111,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O111" s="4"/>
-    </row>
-    <row r="112" spans="8:15">
-      <c r="H112" s="7" t="e">
-        <f>VLOOKUP(G112,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" t="e">
-        <f>VLOOKUP(G112,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H111,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O111" t="e">
+        <f>VLOOKUP(H111,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+    </row>
+    <row r="112" spans="9:18">
+      <c r="I112" s="6" t="e">
+        <f>VLOOKUP(H112,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J112" t="e">
-        <f>VLOOKUP(G112,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H112,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K112" t="e">
-        <f>VLOOKUP(G112,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H112,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L112" t="e">
-        <f>VLOOKUP(G112,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H112,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M112" t="e">
-        <f>VLOOKUP(G112,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H112,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N112" t="e">
-        <f>VLOOKUP(G112,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O112" s="4"/>
-    </row>
-    <row r="113" spans="8:15">
-      <c r="H113" s="7" t="e">
-        <f>VLOOKUP(G113,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" t="e">
-        <f>VLOOKUP(G113,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H112,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O112" t="e">
+        <f>VLOOKUP(H112,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+    </row>
+    <row r="113" spans="9:18">
+      <c r="I113" s="6" t="e">
+        <f>VLOOKUP(H113,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J113" t="e">
-        <f>VLOOKUP(G113,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H113,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K113" t="e">
-        <f>VLOOKUP(G113,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H113,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L113" t="e">
-        <f>VLOOKUP(G113,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H113,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M113" t="e">
-        <f>VLOOKUP(G113,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H113,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N113" t="e">
-        <f>VLOOKUP(G113,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O113" s="4"/>
-    </row>
-    <row r="114" spans="8:15">
-      <c r="H114" s="7" t="e">
-        <f>VLOOKUP(G114,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" t="e">
-        <f>VLOOKUP(G114,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H113,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O113" t="e">
+        <f>VLOOKUP(H113,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+    </row>
+    <row r="114" spans="9:18">
+      <c r="I114" s="6" t="e">
+        <f>VLOOKUP(H114,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J114" t="e">
-        <f>VLOOKUP(G114,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H114,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K114" t="e">
-        <f>VLOOKUP(G114,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H114,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L114" t="e">
-        <f>VLOOKUP(G114,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H114,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M114" t="e">
-        <f>VLOOKUP(G114,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H114,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N114" t="e">
-        <f>VLOOKUP(G114,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O114" s="4"/>
-    </row>
-    <row r="115" spans="8:15">
-      <c r="H115" s="7" t="e">
-        <f>VLOOKUP(G115,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I115" t="e">
-        <f>VLOOKUP(G115,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H114,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O114" t="e">
+        <f>VLOOKUP(H114,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+    </row>
+    <row r="115" spans="9:18">
+      <c r="I115" s="6" t="e">
+        <f>VLOOKUP(H115,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J115" t="e">
-        <f>VLOOKUP(G115,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H115,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K115" t="e">
-        <f>VLOOKUP(G115,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H115,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L115" t="e">
-        <f>VLOOKUP(G115,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H115,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M115" t="e">
-        <f>VLOOKUP(G115,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H115,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N115" t="e">
-        <f>VLOOKUP(G115,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="8:15">
-      <c r="H116" s="7" t="e">
-        <f>VLOOKUP(G116,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I116" t="e">
-        <f>VLOOKUP(G116,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H115,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O115" t="e">
+        <f>VLOOKUP(H115,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+    </row>
+    <row r="116" spans="9:18">
+      <c r="I116" s="6" t="e">
+        <f>VLOOKUP(H116,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J116" t="e">
-        <f>VLOOKUP(G116,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H116,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K116" t="e">
-        <f>VLOOKUP(G116,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H116,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L116" t="e">
-        <f>VLOOKUP(G116,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H116,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M116" t="e">
-        <f>VLOOKUP(G116,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H116,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N116" t="e">
-        <f>VLOOKUP(G116,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O116" s="4"/>
-    </row>
-    <row r="117" spans="8:15">
-      <c r="H117" s="7" t="e">
-        <f>VLOOKUP(G117,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I117" t="e">
-        <f>VLOOKUP(G117,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H116,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O116" t="e">
+        <f>VLOOKUP(H116,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+    </row>
+    <row r="117" spans="9:18">
+      <c r="I117" s="6" t="e">
+        <f>VLOOKUP(H117,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J117" t="e">
-        <f>VLOOKUP(G117,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H117,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K117" t="e">
-        <f>VLOOKUP(G117,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H117,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L117" t="e">
-        <f>VLOOKUP(G117,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H117,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M117" t="e">
-        <f>VLOOKUP(G117,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H117,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N117" t="e">
-        <f>VLOOKUP(G117,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O117" s="4"/>
-    </row>
-    <row r="118" spans="8:15">
-      <c r="H118" s="7" t="e">
-        <f>VLOOKUP(G118,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I118" t="e">
-        <f>VLOOKUP(G118,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H117,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O117" t="e">
+        <f>VLOOKUP(H117,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
+    </row>
+    <row r="118" spans="9:18">
+      <c r="I118" s="6" t="e">
+        <f>VLOOKUP(H118,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J118" t="e">
-        <f>VLOOKUP(G118,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H118,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K118" t="e">
-        <f>VLOOKUP(G118,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H118,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L118" t="e">
-        <f>VLOOKUP(G118,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H118,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M118" t="e">
-        <f>VLOOKUP(G118,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H118,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N118" t="e">
-        <f>VLOOKUP(G118,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O118" s="4"/>
-    </row>
-    <row r="119" spans="8:15">
-      <c r="H119" s="7" t="e">
-        <f>VLOOKUP(G119,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I119" t="e">
-        <f>VLOOKUP(G119,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H118,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O118" t="e">
+        <f>VLOOKUP(H118,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+    </row>
+    <row r="119" spans="9:18">
+      <c r="I119" s="6" t="e">
+        <f>VLOOKUP(H119,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J119" t="e">
-        <f>VLOOKUP(G119,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H119,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K119" t="e">
-        <f>VLOOKUP(G119,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H119,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L119" t="e">
-        <f>VLOOKUP(G119,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H119,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M119" t="e">
-        <f>VLOOKUP(G119,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H119,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N119" t="e">
-        <f>VLOOKUP(G119,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O119" s="4"/>
-    </row>
-    <row r="120" spans="8:15">
-      <c r="H120" s="7" t="e">
-        <f>VLOOKUP(G120,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I120" t="e">
-        <f>VLOOKUP(G120,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H119,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O119" t="e">
+        <f>VLOOKUP(H119,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+    </row>
+    <row r="120" spans="9:18">
+      <c r="I120" s="6" t="e">
+        <f>VLOOKUP(H120,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J120" t="e">
-        <f>VLOOKUP(G120,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H120,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K120" t="e">
-        <f>VLOOKUP(G120,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H120,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L120" t="e">
-        <f>VLOOKUP(G120,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H120,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M120" t="e">
-        <f>VLOOKUP(G120,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H120,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N120" t="e">
-        <f>VLOOKUP(G120,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O120" s="4"/>
-    </row>
-    <row r="121" spans="8:15">
-      <c r="H121" s="7" t="e">
-        <f>VLOOKUP(G121,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I121" t="e">
-        <f>VLOOKUP(G121,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H120,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O120" t="e">
+        <f>VLOOKUP(H120,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+    </row>
+    <row r="121" spans="9:18">
+      <c r="I121" s="6" t="e">
+        <f>VLOOKUP(H121,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J121" t="e">
-        <f>VLOOKUP(G121,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H121,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K121" t="e">
-        <f>VLOOKUP(G121,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H121,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L121" t="e">
-        <f>VLOOKUP(G121,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H121,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M121" t="e">
-        <f>VLOOKUP(G121,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H121,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N121" t="e">
-        <f>VLOOKUP(G121,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O121" s="4"/>
-    </row>
-    <row r="122" spans="8:15">
-      <c r="H122" s="7" t="e">
-        <f>VLOOKUP(G122,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I122" t="e">
-        <f>VLOOKUP(G122,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H121,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O121" t="e">
+        <f>VLOOKUP(H121,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+    </row>
+    <row r="122" spans="9:18">
+      <c r="I122" s="6" t="e">
+        <f>VLOOKUP(H122,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J122" t="e">
-        <f>VLOOKUP(G122,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H122,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K122" t="e">
-        <f>VLOOKUP(G122,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H122,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L122" t="e">
-        <f>VLOOKUP(G122,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H122,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M122" t="e">
-        <f>VLOOKUP(G122,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H122,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N122" t="e">
-        <f>VLOOKUP(G122,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O122" s="4"/>
-    </row>
-    <row r="123" spans="8:15">
-      <c r="H123" s="7" t="e">
-        <f>VLOOKUP(G123,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I123" t="e">
-        <f>VLOOKUP(G123,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H122,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O122" t="e">
+        <f>VLOOKUP(H122,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+    </row>
+    <row r="123" spans="9:18">
+      <c r="I123" s="6" t="e">
+        <f>VLOOKUP(H123,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J123" t="e">
-        <f>VLOOKUP(G123,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H123,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K123" t="e">
-        <f>VLOOKUP(G123,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H123,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L123" t="e">
-        <f>VLOOKUP(G123,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H123,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M123" t="e">
-        <f>VLOOKUP(G123,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H123,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N123" t="e">
-        <f>VLOOKUP(G123,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O123" s="4"/>
-    </row>
-    <row r="124" spans="8:15">
-      <c r="H124" s="7" t="e">
-        <f>VLOOKUP(G124,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I124" t="e">
-        <f>VLOOKUP(G124,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H123,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O123" t="e">
+        <f>VLOOKUP(H123,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+    </row>
+    <row r="124" spans="9:18">
+      <c r="I124" s="6" t="e">
+        <f>VLOOKUP(H124,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J124" t="e">
-        <f>VLOOKUP(G124,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H124,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K124" t="e">
-        <f>VLOOKUP(G124,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H124,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L124" t="e">
-        <f>VLOOKUP(G124,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H124,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M124" t="e">
-        <f>VLOOKUP(G124,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H124,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N124" t="e">
-        <f>VLOOKUP(G124,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O124" s="4"/>
-    </row>
-    <row r="125" spans="8:15">
-      <c r="H125" s="7" t="e">
-        <f>VLOOKUP(G125,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="e">
-        <f>VLOOKUP(G125,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H124,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O124" t="e">
+        <f>VLOOKUP(H124,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+    </row>
+    <row r="125" spans="9:18">
+      <c r="I125" s="6" t="e">
+        <f>VLOOKUP(H125,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J125" t="e">
-        <f>VLOOKUP(G125,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H125,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K125" t="e">
-        <f>VLOOKUP(G125,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H125,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L125" t="e">
-        <f>VLOOKUP(G125,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H125,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M125" t="e">
-        <f>VLOOKUP(G125,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H125,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N125" t="e">
-        <f>VLOOKUP(G125,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O125" s="4"/>
-    </row>
-    <row r="126" spans="8:15">
-      <c r="H126" s="7" t="e">
-        <f>VLOOKUP(G126,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I126" t="e">
-        <f>VLOOKUP(G126,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H125,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O125" t="e">
+        <f>VLOOKUP(H125,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+    </row>
+    <row r="126" spans="9:18">
+      <c r="I126" s="6" t="e">
+        <f>VLOOKUP(H126,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J126" t="e">
-        <f>VLOOKUP(G126,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H126,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K126" t="e">
-        <f>VLOOKUP(G126,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H126,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L126" t="e">
-        <f>VLOOKUP(G126,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H126,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M126" t="e">
-        <f>VLOOKUP(G126,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H126,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N126" t="e">
-        <f>VLOOKUP(G126,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="8:15">
-      <c r="H127" s="7" t="e">
-        <f>VLOOKUP(G127,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I127" t="e">
-        <f>VLOOKUP(G127,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H126,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O126" t="e">
+        <f>VLOOKUP(H126,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+    </row>
+    <row r="127" spans="9:18">
+      <c r="I127" s="6" t="e">
+        <f>VLOOKUP(H127,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J127" t="e">
-        <f>VLOOKUP(G127,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H127,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K127" t="e">
-        <f>VLOOKUP(G127,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H127,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L127" t="e">
-        <f>VLOOKUP(G127,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H127,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M127" t="e">
-        <f>VLOOKUP(G127,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H127,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N127" t="e">
-        <f>VLOOKUP(G127,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O127" s="4"/>
-    </row>
-    <row r="128" spans="8:15">
-      <c r="H128" s="7" t="e">
-        <f>VLOOKUP(G128,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I128" t="e">
-        <f>VLOOKUP(G128,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H127,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O127" t="e">
+        <f>VLOOKUP(H127,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+    </row>
+    <row r="128" spans="9:18">
+      <c r="I128" s="6" t="e">
+        <f>VLOOKUP(H128,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J128" t="e">
-        <f>VLOOKUP(G128,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H128,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K128" t="e">
-        <f>VLOOKUP(G128,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H128,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L128" t="e">
-        <f>VLOOKUP(G128,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H128,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M128" t="e">
-        <f>VLOOKUP(G128,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H128,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N128" t="e">
-        <f>VLOOKUP(G128,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O128" s="4"/>
-    </row>
-    <row r="129" spans="8:15">
-      <c r="H129" s="7" t="e">
-        <f>VLOOKUP(G129,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I129" t="e">
-        <f>VLOOKUP(G129,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H128,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O128" t="e">
+        <f>VLOOKUP(H128,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+    </row>
+    <row r="129" spans="9:18">
+      <c r="I129" s="6" t="e">
+        <f>VLOOKUP(H129,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J129" t="e">
-        <f>VLOOKUP(G129,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H129,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K129" t="e">
-        <f>VLOOKUP(G129,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H129,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L129" t="e">
-        <f>VLOOKUP(G129,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H129,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M129" t="e">
-        <f>VLOOKUP(G129,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H129,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N129" t="e">
-        <f>VLOOKUP(G129,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="8:15">
-      <c r="H130" s="7" t="e">
-        <f>VLOOKUP(G130,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I130" t="e">
-        <f>VLOOKUP(G130,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H129,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O129" t="e">
+        <f>VLOOKUP(H129,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+    </row>
+    <row r="130" spans="9:18">
+      <c r="I130" s="6" t="e">
+        <f>VLOOKUP(H130,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J130" t="e">
-        <f>VLOOKUP(G130,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H130,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K130" t="e">
-        <f>VLOOKUP(G130,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H130,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L130" t="e">
-        <f>VLOOKUP(G130,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H130,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M130" t="e">
-        <f>VLOOKUP(G130,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H130,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N130" t="e">
-        <f>VLOOKUP(G130,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O130" s="4"/>
-    </row>
-    <row r="131" spans="8:15">
-      <c r="H131" s="7" t="e">
-        <f>VLOOKUP(G131,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I131" t="e">
-        <f>VLOOKUP(G131,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H130,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O130" t="e">
+        <f>VLOOKUP(H130,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+    </row>
+    <row r="131" spans="9:18">
+      <c r="I131" s="6" t="e">
+        <f>VLOOKUP(H131,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J131" t="e">
-        <f>VLOOKUP(G131,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H131,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K131" t="e">
-        <f>VLOOKUP(G131,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H131,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L131" t="e">
-        <f>VLOOKUP(G131,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H131,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M131" t="e">
-        <f>VLOOKUP(G131,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H131,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N131" t="e">
-        <f>VLOOKUP(G131,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="8:15">
-      <c r="H132" s="7" t="e">
-        <f>VLOOKUP(G132,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I132" t="e">
-        <f>VLOOKUP(G132,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H131,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O131" t="e">
+        <f>VLOOKUP(H131,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+    </row>
+    <row r="132" spans="9:18">
+      <c r="I132" s="6" t="e">
+        <f>VLOOKUP(H132,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J132" t="e">
-        <f>VLOOKUP(G132,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H132,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K132" t="e">
-        <f>VLOOKUP(G132,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H132,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L132" t="e">
-        <f>VLOOKUP(G132,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H132,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M132" t="e">
-        <f>VLOOKUP(G132,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H132,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N132" t="e">
-        <f>VLOOKUP(G132,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="8:15">
-      <c r="H133" s="7" t="e">
-        <f>VLOOKUP(G133,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I133" t="e">
-        <f>VLOOKUP(G133,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H132,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O132" t="e">
+        <f>VLOOKUP(H132,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+    </row>
+    <row r="133" spans="9:18">
+      <c r="I133" s="6" t="e">
+        <f>VLOOKUP(H133,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J133" t="e">
-        <f>VLOOKUP(G133,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H133,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K133" t="e">
-        <f>VLOOKUP(G133,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H133,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L133" t="e">
-        <f>VLOOKUP(G133,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H133,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M133" t="e">
-        <f>VLOOKUP(G133,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H133,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N133" t="e">
-        <f>VLOOKUP(G133,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O133" s="4"/>
-    </row>
-    <row r="134" spans="8:15">
-      <c r="H134" s="7" t="e">
-        <f>VLOOKUP(G134,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I134" t="e">
-        <f>VLOOKUP(G134,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H133,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O133" t="e">
+        <f>VLOOKUP(H133,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+    </row>
+    <row r="134" spans="9:18">
+      <c r="I134" s="6" t="e">
+        <f>VLOOKUP(H134,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J134" t="e">
-        <f>VLOOKUP(G134,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H134,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K134" t="e">
-        <f>VLOOKUP(G134,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H134,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L134" t="e">
-        <f>VLOOKUP(G134,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H134,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M134" t="e">
-        <f>VLOOKUP(G134,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H134,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N134" t="e">
-        <f>VLOOKUP(G134,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O134" s="4"/>
-    </row>
-    <row r="135" spans="8:15">
-      <c r="H135" s="7" t="e">
-        <f>VLOOKUP(G135,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I135" t="e">
-        <f>VLOOKUP(G135,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H134,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O134" t="e">
+        <f>VLOOKUP(H134,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+    </row>
+    <row r="135" spans="9:18">
+      <c r="I135" s="6" t="e">
+        <f>VLOOKUP(H135,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J135" t="e">
-        <f>VLOOKUP(G135,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H135,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K135" t="e">
-        <f>VLOOKUP(G135,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H135,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L135" t="e">
-        <f>VLOOKUP(G135,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H135,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M135" t="e">
-        <f>VLOOKUP(G135,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H135,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N135" t="e">
-        <f>VLOOKUP(G135,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O135" s="4"/>
-    </row>
-    <row r="136" spans="8:15">
-      <c r="H136" s="7" t="e">
-        <f>VLOOKUP(G136,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I136" t="e">
-        <f>VLOOKUP(G136,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H135,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O135" t="e">
+        <f>VLOOKUP(H135,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+    </row>
+    <row r="136" spans="9:18">
+      <c r="I136" s="6" t="e">
+        <f>VLOOKUP(H136,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J136" t="e">
-        <f>VLOOKUP(G136,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H136,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K136" t="e">
-        <f>VLOOKUP(G136,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H136,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L136" t="e">
-        <f>VLOOKUP(G136,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H136,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M136" t="e">
-        <f>VLOOKUP(G136,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H136,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N136" t="e">
-        <f>VLOOKUP(G136,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O136" s="4"/>
-    </row>
-    <row r="137" spans="8:15">
-      <c r="H137" s="7" t="e">
-        <f>VLOOKUP(G137,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I137" t="e">
-        <f>VLOOKUP(G137,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H136,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O136" t="e">
+        <f>VLOOKUP(H136,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+    </row>
+    <row r="137" spans="9:18">
+      <c r="I137" s="6" t="e">
+        <f>VLOOKUP(H137,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J137" t="e">
-        <f>VLOOKUP(G137,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H137,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K137" t="e">
-        <f>VLOOKUP(G137,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H137,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L137" t="e">
-        <f>VLOOKUP(G137,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H137,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M137" t="e">
-        <f>VLOOKUP(G137,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H137,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N137" t="e">
-        <f>VLOOKUP(G137,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O137" s="4"/>
-    </row>
-    <row r="138" spans="8:15">
-      <c r="H138" s="7" t="e">
-        <f>VLOOKUP(G138,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I138" t="e">
-        <f>VLOOKUP(G138,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H137,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O137" t="e">
+        <f>VLOOKUP(H137,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+    </row>
+    <row r="138" spans="9:18">
+      <c r="I138" s="6" t="e">
+        <f>VLOOKUP(H138,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J138" t="e">
-        <f>VLOOKUP(G138,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H138,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K138" t="e">
-        <f>VLOOKUP(G138,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H138,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L138" t="e">
-        <f>VLOOKUP(G138,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H138,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M138" t="e">
-        <f>VLOOKUP(G138,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H138,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N138" t="e">
-        <f>VLOOKUP(G138,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="8:15">
-      <c r="H139" s="7" t="e">
-        <f>VLOOKUP(G139,Cuentas!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I139" t="e">
-        <f>VLOOKUP(G139,Cuentas!A:C,3,FALSE)</f>
+        <f>VLOOKUP(H138,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O138" t="e">
+        <f>VLOOKUP(H138,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+    </row>
+    <row r="139" spans="9:18">
+      <c r="I139" s="6" t="e">
+        <f>VLOOKUP(H139,Cuentas!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J139" t="e">
-        <f>VLOOKUP(G139,Cuentas!A:D,4,FALSE)</f>
+        <f>VLOOKUP(H139,Cuentas!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K139" t="e">
-        <f>VLOOKUP(G139,Cuentas!A:E,5,FALSE)</f>
+        <f>VLOOKUP(H139,Cuentas!A:D,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L139" t="e">
-        <f>VLOOKUP(G139,Cuentas!A:F,6,FALSE)</f>
+        <f>VLOOKUP(H139,Cuentas!A:E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M139" t="e">
-        <f>VLOOKUP(G139,Cuentas!A:G,7,FALSE)</f>
+        <f>VLOOKUP(H139,Cuentas!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N139" t="e">
-        <f>VLOOKUP(G139,Cuentas!A:H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O139" s="4"/>
+        <f>VLOOKUP(H139,Cuentas!A:G,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O139" t="e">
+        <f>VLOOKUP(H139,Cuentas!A:H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"A2:A100"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5521,18 +6252,24 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Cuentas!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G1048576</xm:sqref>
+          <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Cuentas!$A$2:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>G2</xm:sqref>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Monedas!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G139</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
